--- a/conf/fw-rules.xlsx
+++ b/conf/fw-rules.xlsx
@@ -130,7 +130,7 @@
     <t>iida-az1-p01-net02-any-tcp</t>
   </si>
   <si>
-    <t>36caaa07-da5b-418f-bd38-25bec736b4c3</t>
+    <t>2b9a71f6-6885-460e-a1a4-32e84c126a0e</t>
   </si>
   <si>
     <t>10.1.2.0/24</t>
@@ -381,7 +381,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -832,701 +835,2763 @@
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
-      <selection activeCell="D13" activeCellId="0" pane="topLeft" sqref="D13"/>
+      <selection activeCell="D11" activeCellId="0" pane="topLeft" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="11.7268041237113"/>
-    <col customWidth="1" max="2" min="2" style="9" width="9.13917525773196"/>
-    <col customWidth="1" max="3" min="3" style="9" width="32.3247422680412"/>
-    <col customWidth="1" max="4" min="4" style="9" width="19.0927835051546"/>
-    <col customWidth="1" max="5" min="5" style="9" width="9.273195876288661"/>
-    <col customWidth="1" max="6" min="6" style="9" width="7.3659793814433"/>
-    <col customWidth="1" max="7" min="7" style="9" width="6.95360824742268"/>
-    <col customWidth="1" max="8" min="8" style="9" width="9.953608247422681"/>
-    <col customWidth="1" max="9" min="9" style="9" width="21.4123711340206"/>
-    <col customWidth="1" max="10" min="10" style="9" width="13.3659793814433"/>
-    <col customWidth="1" max="11" min="11" style="9" width="14.4587628865979"/>
-    <col customWidth="1" max="12" min="12" style="9" width="10.3659793814433"/>
-    <col customWidth="1" max="15" min="13" style="9" width="13.3659793814433"/>
-    <col customWidth="1" max="1025" min="16" style="9" width="7.5"/>
+    <col customWidth="1" max="1" min="1" style="10" width="11.5927835051546"/>
+    <col customWidth="1" max="2" min="2" style="10" width="9.13917525773196"/>
+    <col customWidth="1" max="3" min="3" style="10" width="32.1855670103093"/>
+    <col customWidth="1" max="4" min="4" style="10" width="19.0927835051546"/>
+    <col customWidth="1" max="5" min="5" style="10" width="9.273195876288661"/>
+    <col customWidth="1" max="6" min="6" style="10" width="7.3659793814433"/>
+    <col customWidth="1" max="7" min="7" style="10" width="6.95360824742268"/>
+    <col customWidth="1" max="8" min="8" style="10" width="9.953608247422681"/>
+    <col customWidth="1" max="9" min="9" style="10" width="21.4123711340206"/>
+    <col customWidth="1" max="10" min="10" style="10" width="13.3659793814433"/>
+    <col customWidth="1" max="11" min="11" style="10" width="14.319587628866"/>
+    <col customWidth="1" max="12" min="12" style="10" width="10.3659793814433"/>
+    <col customWidth="1" max="15" min="13" style="10" width="13.3659793814433"/>
+    <col customWidth="1" max="1025" min="16" style="10" width="7.3659793814433"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="13.9" r="1" s="1" spans="1:1024"/>
-    <row r="2" spans="1:1024"/>
+    <row customFormat="1" customHeight="1" ht="13.9" r="1" s="2" spans="1:1024"/>
+    <row customHeight="1" ht="13.5" r="2" s="49" spans="1:1024">
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="10" t="n"/>
+      <c r="C2" s="10" t="n"/>
+      <c r="D2" s="10" t="n"/>
+      <c r="E2" s="10" t="n"/>
+      <c r="F2" s="10" t="n"/>
+      <c r="G2" s="10" t="n"/>
+      <c r="H2" s="10" t="n"/>
+      <c r="I2" s="10" t="n"/>
+      <c r="J2" s="10" t="n"/>
+      <c r="K2" s="10" t="n"/>
+      <c r="L2" s="10" t="n"/>
+      <c r="M2" s="10" t="n"/>
+      <c r="N2" s="10" t="n"/>
+      <c r="O2" s="10" t="n"/>
+      <c r="P2" s="10" t="n"/>
+      <c r="Q2" s="10" t="n"/>
+      <c r="R2" s="10" t="n"/>
+      <c r="S2" s="10" t="n"/>
+      <c r="T2" s="10" t="n"/>
+      <c r="U2" s="10" t="n"/>
+      <c r="V2" s="10" t="n"/>
+      <c r="W2" s="10" t="n"/>
+      <c r="X2" s="10" t="n"/>
+      <c r="Y2" s="10" t="n"/>
+      <c r="Z2" s="10" t="n"/>
+      <c r="AA2" s="10" t="n"/>
+      <c r="AB2" s="10" t="n"/>
+      <c r="AC2" s="10" t="n"/>
+      <c r="AD2" s="10" t="n"/>
+      <c r="AE2" s="10" t="n"/>
+      <c r="AF2" s="10" t="n"/>
+      <c r="AG2" s="10" t="n"/>
+      <c r="AH2" s="10" t="n"/>
+      <c r="AI2" s="10" t="n"/>
+      <c r="AJ2" s="10" t="n"/>
+      <c r="AK2" s="10" t="n"/>
+      <c r="AL2" s="10" t="n"/>
+      <c r="AM2" s="10" t="n"/>
+      <c r="AN2" s="10" t="n"/>
+      <c r="AO2" s="10" t="n"/>
+      <c r="AP2" s="10" t="n"/>
+      <c r="AQ2" s="10" t="n"/>
+      <c r="AR2" s="10" t="n"/>
+      <c r="AS2" s="10" t="n"/>
+      <c r="AT2" s="10" t="n"/>
+      <c r="AU2" s="10" t="n"/>
+      <c r="AV2" s="10" t="n"/>
+      <c r="AW2" s="10" t="n"/>
+      <c r="AX2" s="10" t="n"/>
+      <c r="AY2" s="10" t="n"/>
+      <c r="AZ2" s="10" t="n"/>
+      <c r="BA2" s="10" t="n"/>
+      <c r="BB2" s="10" t="n"/>
+      <c r="BC2" s="10" t="n"/>
+      <c r="BD2" s="10" t="n"/>
+      <c r="BE2" s="10" t="n"/>
+      <c r="BF2" s="10" t="n"/>
+      <c r="BG2" s="10" t="n"/>
+      <c r="BH2" s="10" t="n"/>
+      <c r="BI2" s="10" t="n"/>
+      <c r="BJ2" s="10" t="n"/>
+      <c r="BK2" s="10" t="n"/>
+      <c r="BL2" s="10" t="n"/>
+      <c r="BM2" s="10" t="n"/>
+      <c r="BN2" s="10" t="n"/>
+      <c r="BO2" s="10" t="n"/>
+      <c r="BP2" s="10" t="n"/>
+      <c r="BQ2" s="10" t="n"/>
+      <c r="BR2" s="10" t="n"/>
+      <c r="BS2" s="10" t="n"/>
+      <c r="BT2" s="10" t="n"/>
+      <c r="BU2" s="10" t="n"/>
+      <c r="BV2" s="10" t="n"/>
+      <c r="BW2" s="10" t="n"/>
+      <c r="BX2" s="10" t="n"/>
+      <c r="BY2" s="10" t="n"/>
+      <c r="BZ2" s="10" t="n"/>
+      <c r="CA2" s="10" t="n"/>
+      <c r="CB2" s="10" t="n"/>
+      <c r="CC2" s="10" t="n"/>
+      <c r="CD2" s="10" t="n"/>
+      <c r="CE2" s="10" t="n"/>
+      <c r="CF2" s="10" t="n"/>
+      <c r="CG2" s="10" t="n"/>
+      <c r="CH2" s="10" t="n"/>
+      <c r="CI2" s="10" t="n"/>
+      <c r="CJ2" s="10" t="n"/>
+      <c r="CK2" s="10" t="n"/>
+      <c r="CL2" s="10" t="n"/>
+      <c r="CM2" s="10" t="n"/>
+      <c r="CN2" s="10" t="n"/>
+      <c r="CO2" s="10" t="n"/>
+      <c r="CP2" s="10" t="n"/>
+      <c r="CQ2" s="10" t="n"/>
+      <c r="CR2" s="10" t="n"/>
+      <c r="CS2" s="10" t="n"/>
+      <c r="CT2" s="10" t="n"/>
+      <c r="CU2" s="10" t="n"/>
+      <c r="CV2" s="10" t="n"/>
+      <c r="CW2" s="10" t="n"/>
+      <c r="CX2" s="10" t="n"/>
+      <c r="CY2" s="10" t="n"/>
+      <c r="CZ2" s="10" t="n"/>
+      <c r="DA2" s="10" t="n"/>
+      <c r="DB2" s="10" t="n"/>
+      <c r="DC2" s="10" t="n"/>
+      <c r="DD2" s="10" t="n"/>
+      <c r="DE2" s="10" t="n"/>
+      <c r="DF2" s="10" t="n"/>
+      <c r="DG2" s="10" t="n"/>
+      <c r="DH2" s="10" t="n"/>
+      <c r="DI2" s="10" t="n"/>
+      <c r="DJ2" s="10" t="n"/>
+      <c r="DK2" s="10" t="n"/>
+      <c r="DL2" s="10" t="n"/>
+      <c r="DM2" s="10" t="n"/>
+      <c r="DN2" s="10" t="n"/>
+      <c r="DO2" s="10" t="n"/>
+      <c r="DP2" s="10" t="n"/>
+      <c r="DQ2" s="10" t="n"/>
+      <c r="DR2" s="10" t="n"/>
+      <c r="DS2" s="10" t="n"/>
+      <c r="DT2" s="10" t="n"/>
+      <c r="DU2" s="10" t="n"/>
+      <c r="DV2" s="10" t="n"/>
+      <c r="DW2" s="10" t="n"/>
+      <c r="DX2" s="10" t="n"/>
+      <c r="DY2" s="10" t="n"/>
+      <c r="DZ2" s="10" t="n"/>
+      <c r="EA2" s="10" t="n"/>
+      <c r="EB2" s="10" t="n"/>
+      <c r="EC2" s="10" t="n"/>
+      <c r="ED2" s="10" t="n"/>
+      <c r="EE2" s="10" t="n"/>
+      <c r="EF2" s="10" t="n"/>
+      <c r="EG2" s="10" t="n"/>
+      <c r="EH2" s="10" t="n"/>
+      <c r="EI2" s="10" t="n"/>
+      <c r="EJ2" s="10" t="n"/>
+      <c r="EK2" s="10" t="n"/>
+      <c r="EL2" s="10" t="n"/>
+      <c r="EM2" s="10" t="n"/>
+      <c r="EN2" s="10" t="n"/>
+      <c r="EO2" s="10" t="n"/>
+      <c r="EP2" s="10" t="n"/>
+      <c r="EQ2" s="10" t="n"/>
+      <c r="ER2" s="10" t="n"/>
+      <c r="ES2" s="10" t="n"/>
+      <c r="ET2" s="10" t="n"/>
+      <c r="EU2" s="10" t="n"/>
+      <c r="EV2" s="10" t="n"/>
+      <c r="EW2" s="10" t="n"/>
+      <c r="EX2" s="10" t="n"/>
+      <c r="EY2" s="10" t="n"/>
+      <c r="EZ2" s="10" t="n"/>
+      <c r="FA2" s="10" t="n"/>
+      <c r="FB2" s="10" t="n"/>
+      <c r="FC2" s="10" t="n"/>
+      <c r="FD2" s="10" t="n"/>
+      <c r="FE2" s="10" t="n"/>
+      <c r="FF2" s="10" t="n"/>
+      <c r="FG2" s="10" t="n"/>
+      <c r="FH2" s="10" t="n"/>
+      <c r="FI2" s="10" t="n"/>
+      <c r="FJ2" s="10" t="n"/>
+      <c r="FK2" s="10" t="n"/>
+      <c r="FL2" s="10" t="n"/>
+      <c r="FM2" s="10" t="n"/>
+      <c r="FN2" s="10" t="n"/>
+      <c r="FO2" s="10" t="n"/>
+      <c r="FP2" s="10" t="n"/>
+      <c r="FQ2" s="10" t="n"/>
+      <c r="FR2" s="10" t="n"/>
+      <c r="FS2" s="10" t="n"/>
+      <c r="FT2" s="10" t="n"/>
+      <c r="FU2" s="10" t="n"/>
+      <c r="FV2" s="10" t="n"/>
+      <c r="FW2" s="10" t="n"/>
+      <c r="FX2" s="10" t="n"/>
+      <c r="FY2" s="10" t="n"/>
+      <c r="FZ2" s="10" t="n"/>
+      <c r="GA2" s="10" t="n"/>
+      <c r="GB2" s="10" t="n"/>
+      <c r="GC2" s="10" t="n"/>
+      <c r="GD2" s="10" t="n"/>
+      <c r="GE2" s="10" t="n"/>
+      <c r="GF2" s="10" t="n"/>
+      <c r="GG2" s="10" t="n"/>
+      <c r="GH2" s="10" t="n"/>
+      <c r="GI2" s="10" t="n"/>
+      <c r="GJ2" s="10" t="n"/>
+      <c r="GK2" s="10" t="n"/>
+      <c r="GL2" s="10" t="n"/>
+      <c r="GM2" s="10" t="n"/>
+      <c r="GN2" s="10" t="n"/>
+      <c r="GO2" s="10" t="n"/>
+      <c r="GP2" s="10" t="n"/>
+      <c r="GQ2" s="10" t="n"/>
+      <c r="GR2" s="10" t="n"/>
+      <c r="GS2" s="10" t="n"/>
+      <c r="GT2" s="10" t="n"/>
+      <c r="GU2" s="10" t="n"/>
+      <c r="GV2" s="10" t="n"/>
+      <c r="GW2" s="10" t="n"/>
+      <c r="GX2" s="10" t="n"/>
+      <c r="GY2" s="10" t="n"/>
+      <c r="GZ2" s="10" t="n"/>
+      <c r="HA2" s="10" t="n"/>
+      <c r="HB2" s="10" t="n"/>
+      <c r="HC2" s="10" t="n"/>
+      <c r="HD2" s="10" t="n"/>
+      <c r="HE2" s="10" t="n"/>
+      <c r="HF2" s="10" t="n"/>
+      <c r="HG2" s="10" t="n"/>
+      <c r="HH2" s="10" t="n"/>
+      <c r="HI2" s="10" t="n"/>
+      <c r="HJ2" s="10" t="n"/>
+      <c r="HK2" s="10" t="n"/>
+      <c r="HL2" s="10" t="n"/>
+      <c r="HM2" s="10" t="n"/>
+      <c r="HN2" s="10" t="n"/>
+      <c r="HO2" s="10" t="n"/>
+      <c r="HP2" s="10" t="n"/>
+      <c r="HQ2" s="10" t="n"/>
+      <c r="HR2" s="10" t="n"/>
+      <c r="HS2" s="10" t="n"/>
+      <c r="HT2" s="10" t="n"/>
+      <c r="HU2" s="10" t="n"/>
+      <c r="HV2" s="10" t="n"/>
+      <c r="HW2" s="10" t="n"/>
+      <c r="HX2" s="10" t="n"/>
+      <c r="HY2" s="10" t="n"/>
+      <c r="HZ2" s="10" t="n"/>
+      <c r="IA2" s="10" t="n"/>
+      <c r="IB2" s="10" t="n"/>
+      <c r="IC2" s="10" t="n"/>
+      <c r="ID2" s="10" t="n"/>
+      <c r="IE2" s="10" t="n"/>
+      <c r="IF2" s="10" t="n"/>
+      <c r="IG2" s="10" t="n"/>
+      <c r="IH2" s="10" t="n"/>
+      <c r="II2" s="10" t="n"/>
+      <c r="IJ2" s="10" t="n"/>
+      <c r="IK2" s="10" t="n"/>
+      <c r="IL2" s="10" t="n"/>
+      <c r="IM2" s="10" t="n"/>
+      <c r="IN2" s="10" t="n"/>
+      <c r="IO2" s="10" t="n"/>
+      <c r="IP2" s="10" t="n"/>
+      <c r="IQ2" s="10" t="n"/>
+      <c r="IR2" s="10" t="n"/>
+      <c r="IS2" s="10" t="n"/>
+      <c r="IT2" s="10" t="n"/>
+      <c r="IU2" s="10" t="n"/>
+      <c r="IV2" s="10" t="n"/>
+      <c r="IW2" s="10" t="n"/>
+      <c r="IX2" s="10" t="n"/>
+      <c r="IY2" s="10" t="n"/>
+      <c r="IZ2" s="10" t="n"/>
+      <c r="JA2" s="10" t="n"/>
+      <c r="JB2" s="10" t="n"/>
+      <c r="JC2" s="10" t="n"/>
+      <c r="JD2" s="10" t="n"/>
+      <c r="JE2" s="10" t="n"/>
+      <c r="JF2" s="10" t="n"/>
+      <c r="JG2" s="10" t="n"/>
+      <c r="JH2" s="10" t="n"/>
+      <c r="JI2" s="10" t="n"/>
+      <c r="JJ2" s="10" t="n"/>
+      <c r="JK2" s="10" t="n"/>
+      <c r="JL2" s="10" t="n"/>
+      <c r="JM2" s="10" t="n"/>
+      <c r="JN2" s="10" t="n"/>
+      <c r="JO2" s="10" t="n"/>
+      <c r="JP2" s="10" t="n"/>
+      <c r="JQ2" s="10" t="n"/>
+      <c r="JR2" s="10" t="n"/>
+      <c r="JS2" s="10" t="n"/>
+      <c r="JT2" s="10" t="n"/>
+      <c r="JU2" s="10" t="n"/>
+      <c r="JV2" s="10" t="n"/>
+      <c r="JW2" s="10" t="n"/>
+      <c r="JX2" s="10" t="n"/>
+      <c r="JY2" s="10" t="n"/>
+      <c r="JZ2" s="10" t="n"/>
+      <c r="KA2" s="10" t="n"/>
+      <c r="KB2" s="10" t="n"/>
+      <c r="KC2" s="10" t="n"/>
+      <c r="KD2" s="10" t="n"/>
+      <c r="KE2" s="10" t="n"/>
+      <c r="KF2" s="10" t="n"/>
+      <c r="KG2" s="10" t="n"/>
+      <c r="KH2" s="10" t="n"/>
+      <c r="KI2" s="10" t="n"/>
+      <c r="KJ2" s="10" t="n"/>
+      <c r="KK2" s="10" t="n"/>
+      <c r="KL2" s="10" t="n"/>
+      <c r="KM2" s="10" t="n"/>
+      <c r="KN2" s="10" t="n"/>
+      <c r="KO2" s="10" t="n"/>
+      <c r="KP2" s="10" t="n"/>
+      <c r="KQ2" s="10" t="n"/>
+      <c r="KR2" s="10" t="n"/>
+      <c r="KS2" s="10" t="n"/>
+      <c r="KT2" s="10" t="n"/>
+      <c r="KU2" s="10" t="n"/>
+      <c r="KV2" s="10" t="n"/>
+      <c r="KW2" s="10" t="n"/>
+      <c r="KX2" s="10" t="n"/>
+      <c r="KY2" s="10" t="n"/>
+      <c r="KZ2" s="10" t="n"/>
+      <c r="LA2" s="10" t="n"/>
+      <c r="LB2" s="10" t="n"/>
+      <c r="LC2" s="10" t="n"/>
+      <c r="LD2" s="10" t="n"/>
+      <c r="LE2" s="10" t="n"/>
+      <c r="LF2" s="10" t="n"/>
+      <c r="LG2" s="10" t="n"/>
+      <c r="LH2" s="10" t="n"/>
+      <c r="LI2" s="10" t="n"/>
+      <c r="LJ2" s="10" t="n"/>
+      <c r="LK2" s="10" t="n"/>
+      <c r="LL2" s="10" t="n"/>
+      <c r="LM2" s="10" t="n"/>
+      <c r="LN2" s="10" t="n"/>
+      <c r="LO2" s="10" t="n"/>
+      <c r="LP2" s="10" t="n"/>
+      <c r="LQ2" s="10" t="n"/>
+      <c r="LR2" s="10" t="n"/>
+      <c r="LS2" s="10" t="n"/>
+      <c r="LT2" s="10" t="n"/>
+      <c r="LU2" s="10" t="n"/>
+      <c r="LV2" s="10" t="n"/>
+      <c r="LW2" s="10" t="n"/>
+      <c r="LX2" s="10" t="n"/>
+      <c r="LY2" s="10" t="n"/>
+      <c r="LZ2" s="10" t="n"/>
+      <c r="MA2" s="10" t="n"/>
+      <c r="MB2" s="10" t="n"/>
+      <c r="MC2" s="10" t="n"/>
+      <c r="MD2" s="10" t="n"/>
+      <c r="ME2" s="10" t="n"/>
+      <c r="MF2" s="10" t="n"/>
+      <c r="MG2" s="10" t="n"/>
+      <c r="MH2" s="10" t="n"/>
+      <c r="MI2" s="10" t="n"/>
+      <c r="MJ2" s="10" t="n"/>
+      <c r="MK2" s="10" t="n"/>
+      <c r="ML2" s="10" t="n"/>
+      <c r="MM2" s="10" t="n"/>
+      <c r="MN2" s="10" t="n"/>
+      <c r="MO2" s="10" t="n"/>
+      <c r="MP2" s="10" t="n"/>
+      <c r="MQ2" s="10" t="n"/>
+      <c r="MR2" s="10" t="n"/>
+      <c r="MS2" s="10" t="n"/>
+      <c r="MT2" s="10" t="n"/>
+      <c r="MU2" s="10" t="n"/>
+      <c r="MV2" s="10" t="n"/>
+      <c r="MW2" s="10" t="n"/>
+      <c r="MX2" s="10" t="n"/>
+      <c r="MY2" s="10" t="n"/>
+      <c r="MZ2" s="10" t="n"/>
+      <c r="NA2" s="10" t="n"/>
+      <c r="NB2" s="10" t="n"/>
+      <c r="NC2" s="10" t="n"/>
+      <c r="ND2" s="10" t="n"/>
+      <c r="NE2" s="10" t="n"/>
+      <c r="NF2" s="10" t="n"/>
+      <c r="NG2" s="10" t="n"/>
+      <c r="NH2" s="10" t="n"/>
+      <c r="NI2" s="10" t="n"/>
+      <c r="NJ2" s="10" t="n"/>
+      <c r="NK2" s="10" t="n"/>
+      <c r="NL2" s="10" t="n"/>
+      <c r="NM2" s="10" t="n"/>
+      <c r="NN2" s="10" t="n"/>
+      <c r="NO2" s="10" t="n"/>
+      <c r="NP2" s="10" t="n"/>
+      <c r="NQ2" s="10" t="n"/>
+      <c r="NR2" s="10" t="n"/>
+      <c r="NS2" s="10" t="n"/>
+      <c r="NT2" s="10" t="n"/>
+      <c r="NU2" s="10" t="n"/>
+      <c r="NV2" s="10" t="n"/>
+      <c r="NW2" s="10" t="n"/>
+      <c r="NX2" s="10" t="n"/>
+      <c r="NY2" s="10" t="n"/>
+      <c r="NZ2" s="10" t="n"/>
+      <c r="OA2" s="10" t="n"/>
+      <c r="OB2" s="10" t="n"/>
+      <c r="OC2" s="10" t="n"/>
+      <c r="OD2" s="10" t="n"/>
+      <c r="OE2" s="10" t="n"/>
+      <c r="OF2" s="10" t="n"/>
+      <c r="OG2" s="10" t="n"/>
+      <c r="OH2" s="10" t="n"/>
+      <c r="OI2" s="10" t="n"/>
+      <c r="OJ2" s="10" t="n"/>
+      <c r="OK2" s="10" t="n"/>
+      <c r="OL2" s="10" t="n"/>
+      <c r="OM2" s="10" t="n"/>
+      <c r="ON2" s="10" t="n"/>
+      <c r="OO2" s="10" t="n"/>
+      <c r="OP2" s="10" t="n"/>
+      <c r="OQ2" s="10" t="n"/>
+      <c r="OR2" s="10" t="n"/>
+      <c r="OS2" s="10" t="n"/>
+      <c r="OT2" s="10" t="n"/>
+      <c r="OU2" s="10" t="n"/>
+      <c r="OV2" s="10" t="n"/>
+      <c r="OW2" s="10" t="n"/>
+      <c r="OX2" s="10" t="n"/>
+      <c r="OY2" s="10" t="n"/>
+      <c r="OZ2" s="10" t="n"/>
+      <c r="PA2" s="10" t="n"/>
+      <c r="PB2" s="10" t="n"/>
+      <c r="PC2" s="10" t="n"/>
+      <c r="PD2" s="10" t="n"/>
+      <c r="PE2" s="10" t="n"/>
+      <c r="PF2" s="10" t="n"/>
+      <c r="PG2" s="10" t="n"/>
+      <c r="PH2" s="10" t="n"/>
+      <c r="PI2" s="10" t="n"/>
+      <c r="PJ2" s="10" t="n"/>
+      <c r="PK2" s="10" t="n"/>
+      <c r="PL2" s="10" t="n"/>
+      <c r="PM2" s="10" t="n"/>
+      <c r="PN2" s="10" t="n"/>
+      <c r="PO2" s="10" t="n"/>
+      <c r="PP2" s="10" t="n"/>
+      <c r="PQ2" s="10" t="n"/>
+      <c r="PR2" s="10" t="n"/>
+      <c r="PS2" s="10" t="n"/>
+      <c r="PT2" s="10" t="n"/>
+      <c r="PU2" s="10" t="n"/>
+      <c r="PV2" s="10" t="n"/>
+      <c r="PW2" s="10" t="n"/>
+      <c r="PX2" s="10" t="n"/>
+      <c r="PY2" s="10" t="n"/>
+      <c r="PZ2" s="10" t="n"/>
+      <c r="QA2" s="10" t="n"/>
+      <c r="QB2" s="10" t="n"/>
+      <c r="QC2" s="10" t="n"/>
+      <c r="QD2" s="10" t="n"/>
+      <c r="QE2" s="10" t="n"/>
+      <c r="QF2" s="10" t="n"/>
+      <c r="QG2" s="10" t="n"/>
+      <c r="QH2" s="10" t="n"/>
+      <c r="QI2" s="10" t="n"/>
+      <c r="QJ2" s="10" t="n"/>
+      <c r="QK2" s="10" t="n"/>
+      <c r="QL2" s="10" t="n"/>
+      <c r="QM2" s="10" t="n"/>
+      <c r="QN2" s="10" t="n"/>
+      <c r="QO2" s="10" t="n"/>
+      <c r="QP2" s="10" t="n"/>
+      <c r="QQ2" s="10" t="n"/>
+      <c r="QR2" s="10" t="n"/>
+      <c r="QS2" s="10" t="n"/>
+      <c r="QT2" s="10" t="n"/>
+      <c r="QU2" s="10" t="n"/>
+      <c r="QV2" s="10" t="n"/>
+      <c r="QW2" s="10" t="n"/>
+      <c r="QX2" s="10" t="n"/>
+      <c r="QY2" s="10" t="n"/>
+      <c r="QZ2" s="10" t="n"/>
+      <c r="RA2" s="10" t="n"/>
+      <c r="RB2" s="10" t="n"/>
+      <c r="RC2" s="10" t="n"/>
+      <c r="RD2" s="10" t="n"/>
+      <c r="RE2" s="10" t="n"/>
+      <c r="RF2" s="10" t="n"/>
+      <c r="RG2" s="10" t="n"/>
+      <c r="RH2" s="10" t="n"/>
+      <c r="RI2" s="10" t="n"/>
+      <c r="RJ2" s="10" t="n"/>
+      <c r="RK2" s="10" t="n"/>
+      <c r="RL2" s="10" t="n"/>
+      <c r="RM2" s="10" t="n"/>
+      <c r="RN2" s="10" t="n"/>
+      <c r="RO2" s="10" t="n"/>
+      <c r="RP2" s="10" t="n"/>
+      <c r="RQ2" s="10" t="n"/>
+      <c r="RR2" s="10" t="n"/>
+      <c r="RS2" s="10" t="n"/>
+      <c r="RT2" s="10" t="n"/>
+      <c r="RU2" s="10" t="n"/>
+      <c r="RV2" s="10" t="n"/>
+      <c r="RW2" s="10" t="n"/>
+      <c r="RX2" s="10" t="n"/>
+      <c r="RY2" s="10" t="n"/>
+      <c r="RZ2" s="10" t="n"/>
+      <c r="SA2" s="10" t="n"/>
+      <c r="SB2" s="10" t="n"/>
+      <c r="SC2" s="10" t="n"/>
+      <c r="SD2" s="10" t="n"/>
+      <c r="SE2" s="10" t="n"/>
+      <c r="SF2" s="10" t="n"/>
+      <c r="SG2" s="10" t="n"/>
+      <c r="SH2" s="10" t="n"/>
+      <c r="SI2" s="10" t="n"/>
+      <c r="SJ2" s="10" t="n"/>
+      <c r="SK2" s="10" t="n"/>
+      <c r="SL2" s="10" t="n"/>
+      <c r="SM2" s="10" t="n"/>
+      <c r="SN2" s="10" t="n"/>
+      <c r="SO2" s="10" t="n"/>
+      <c r="SP2" s="10" t="n"/>
+      <c r="SQ2" s="10" t="n"/>
+      <c r="SR2" s="10" t="n"/>
+      <c r="SS2" s="10" t="n"/>
+      <c r="ST2" s="10" t="n"/>
+      <c r="SU2" s="10" t="n"/>
+      <c r="SV2" s="10" t="n"/>
+      <c r="SW2" s="10" t="n"/>
+      <c r="SX2" s="10" t="n"/>
+      <c r="SY2" s="10" t="n"/>
+      <c r="SZ2" s="10" t="n"/>
+      <c r="TA2" s="10" t="n"/>
+      <c r="TB2" s="10" t="n"/>
+      <c r="TC2" s="10" t="n"/>
+      <c r="TD2" s="10" t="n"/>
+      <c r="TE2" s="10" t="n"/>
+      <c r="TF2" s="10" t="n"/>
+      <c r="TG2" s="10" t="n"/>
+      <c r="TH2" s="10" t="n"/>
+      <c r="TI2" s="10" t="n"/>
+      <c r="TJ2" s="10" t="n"/>
+      <c r="TK2" s="10" t="n"/>
+      <c r="TL2" s="10" t="n"/>
+      <c r="TM2" s="10" t="n"/>
+      <c r="TN2" s="10" t="n"/>
+      <c r="TO2" s="10" t="n"/>
+      <c r="TP2" s="10" t="n"/>
+      <c r="TQ2" s="10" t="n"/>
+      <c r="TR2" s="10" t="n"/>
+      <c r="TS2" s="10" t="n"/>
+      <c r="TT2" s="10" t="n"/>
+      <c r="TU2" s="10" t="n"/>
+      <c r="TV2" s="10" t="n"/>
+      <c r="TW2" s="10" t="n"/>
+      <c r="TX2" s="10" t="n"/>
+      <c r="TY2" s="10" t="n"/>
+      <c r="TZ2" s="10" t="n"/>
+      <c r="UA2" s="10" t="n"/>
+      <c r="UB2" s="10" t="n"/>
+      <c r="UC2" s="10" t="n"/>
+      <c r="UD2" s="10" t="n"/>
+      <c r="UE2" s="10" t="n"/>
+      <c r="UF2" s="10" t="n"/>
+      <c r="UG2" s="10" t="n"/>
+      <c r="UH2" s="10" t="n"/>
+      <c r="UI2" s="10" t="n"/>
+      <c r="UJ2" s="10" t="n"/>
+      <c r="UK2" s="10" t="n"/>
+      <c r="UL2" s="10" t="n"/>
+      <c r="UM2" s="10" t="n"/>
+      <c r="UN2" s="10" t="n"/>
+      <c r="UO2" s="10" t="n"/>
+      <c r="UP2" s="10" t="n"/>
+      <c r="UQ2" s="10" t="n"/>
+      <c r="UR2" s="10" t="n"/>
+      <c r="US2" s="10" t="n"/>
+      <c r="UT2" s="10" t="n"/>
+      <c r="UU2" s="10" t="n"/>
+      <c r="UV2" s="10" t="n"/>
+      <c r="UW2" s="10" t="n"/>
+      <c r="UX2" s="10" t="n"/>
+      <c r="UY2" s="10" t="n"/>
+      <c r="UZ2" s="10" t="n"/>
+      <c r="VA2" s="10" t="n"/>
+      <c r="VB2" s="10" t="n"/>
+      <c r="VC2" s="10" t="n"/>
+      <c r="VD2" s="10" t="n"/>
+      <c r="VE2" s="10" t="n"/>
+      <c r="VF2" s="10" t="n"/>
+      <c r="VG2" s="10" t="n"/>
+      <c r="VH2" s="10" t="n"/>
+      <c r="VI2" s="10" t="n"/>
+      <c r="VJ2" s="10" t="n"/>
+      <c r="VK2" s="10" t="n"/>
+      <c r="VL2" s="10" t="n"/>
+      <c r="VM2" s="10" t="n"/>
+      <c r="VN2" s="10" t="n"/>
+      <c r="VO2" s="10" t="n"/>
+      <c r="VP2" s="10" t="n"/>
+      <c r="VQ2" s="10" t="n"/>
+      <c r="VR2" s="10" t="n"/>
+      <c r="VS2" s="10" t="n"/>
+      <c r="VT2" s="10" t="n"/>
+      <c r="VU2" s="10" t="n"/>
+      <c r="VV2" s="10" t="n"/>
+      <c r="VW2" s="10" t="n"/>
+      <c r="VX2" s="10" t="n"/>
+      <c r="VY2" s="10" t="n"/>
+      <c r="VZ2" s="10" t="n"/>
+      <c r="WA2" s="10" t="n"/>
+      <c r="WB2" s="10" t="n"/>
+      <c r="WC2" s="10" t="n"/>
+      <c r="WD2" s="10" t="n"/>
+      <c r="WE2" s="10" t="n"/>
+      <c r="WF2" s="10" t="n"/>
+      <c r="WG2" s="10" t="n"/>
+      <c r="WH2" s="10" t="n"/>
+      <c r="WI2" s="10" t="n"/>
+      <c r="WJ2" s="10" t="n"/>
+      <c r="WK2" s="10" t="n"/>
+      <c r="WL2" s="10" t="n"/>
+      <c r="WM2" s="10" t="n"/>
+      <c r="WN2" s="10" t="n"/>
+      <c r="WO2" s="10" t="n"/>
+      <c r="WP2" s="10" t="n"/>
+      <c r="WQ2" s="10" t="n"/>
+      <c r="WR2" s="10" t="n"/>
+      <c r="WS2" s="10" t="n"/>
+      <c r="WT2" s="10" t="n"/>
+      <c r="WU2" s="10" t="n"/>
+      <c r="WV2" s="10" t="n"/>
+      <c r="WW2" s="10" t="n"/>
+      <c r="WX2" s="10" t="n"/>
+      <c r="WY2" s="10" t="n"/>
+      <c r="WZ2" s="10" t="n"/>
+      <c r="XA2" s="10" t="n"/>
+      <c r="XB2" s="10" t="n"/>
+      <c r="XC2" s="10" t="n"/>
+      <c r="XD2" s="10" t="n"/>
+      <c r="XE2" s="10" t="n"/>
+      <c r="XF2" s="10" t="n"/>
+      <c r="XG2" s="10" t="n"/>
+      <c r="XH2" s="10" t="n"/>
+      <c r="XI2" s="10" t="n"/>
+      <c r="XJ2" s="10" t="n"/>
+      <c r="XK2" s="10" t="n"/>
+      <c r="XL2" s="10" t="n"/>
+      <c r="XM2" s="10" t="n"/>
+      <c r="XN2" s="10" t="n"/>
+      <c r="XO2" s="10" t="n"/>
+      <c r="XP2" s="10" t="n"/>
+      <c r="XQ2" s="10" t="n"/>
+      <c r="XR2" s="10" t="n"/>
+      <c r="XS2" s="10" t="n"/>
+      <c r="XT2" s="10" t="n"/>
+      <c r="XU2" s="10" t="n"/>
+      <c r="XV2" s="10" t="n"/>
+      <c r="XW2" s="10" t="n"/>
+      <c r="XX2" s="10" t="n"/>
+      <c r="XY2" s="10" t="n"/>
+      <c r="XZ2" s="10" t="n"/>
+      <c r="YA2" s="10" t="n"/>
+      <c r="YB2" s="10" t="n"/>
+      <c r="YC2" s="10" t="n"/>
+      <c r="YD2" s="10" t="n"/>
+      <c r="YE2" s="10" t="n"/>
+      <c r="YF2" s="10" t="n"/>
+      <c r="YG2" s="10" t="n"/>
+      <c r="YH2" s="10" t="n"/>
+      <c r="YI2" s="10" t="n"/>
+      <c r="YJ2" s="10" t="n"/>
+      <c r="YK2" s="10" t="n"/>
+      <c r="YL2" s="10" t="n"/>
+      <c r="YM2" s="10" t="n"/>
+      <c r="YN2" s="10" t="n"/>
+      <c r="YO2" s="10" t="n"/>
+      <c r="YP2" s="10" t="n"/>
+      <c r="YQ2" s="10" t="n"/>
+      <c r="YR2" s="10" t="n"/>
+      <c r="YS2" s="10" t="n"/>
+      <c r="YT2" s="10" t="n"/>
+      <c r="YU2" s="10" t="n"/>
+      <c r="YV2" s="10" t="n"/>
+      <c r="YW2" s="10" t="n"/>
+      <c r="YX2" s="10" t="n"/>
+      <c r="YY2" s="10" t="n"/>
+      <c r="YZ2" s="10" t="n"/>
+      <c r="ZA2" s="10" t="n"/>
+      <c r="ZB2" s="10" t="n"/>
+      <c r="ZC2" s="10" t="n"/>
+      <c r="ZD2" s="10" t="n"/>
+      <c r="ZE2" s="10" t="n"/>
+      <c r="ZF2" s="10" t="n"/>
+      <c r="ZG2" s="10" t="n"/>
+      <c r="ZH2" s="10" t="n"/>
+      <c r="ZI2" s="10" t="n"/>
+      <c r="ZJ2" s="10" t="n"/>
+      <c r="ZK2" s="10" t="n"/>
+      <c r="ZL2" s="10" t="n"/>
+      <c r="ZM2" s="10" t="n"/>
+      <c r="ZN2" s="10" t="n"/>
+      <c r="ZO2" s="10" t="n"/>
+      <c r="ZP2" s="10" t="n"/>
+      <c r="ZQ2" s="10" t="n"/>
+      <c r="ZR2" s="10" t="n"/>
+      <c r="ZS2" s="10" t="n"/>
+      <c r="ZT2" s="10" t="n"/>
+      <c r="ZU2" s="10" t="n"/>
+      <c r="ZV2" s="10" t="n"/>
+      <c r="ZW2" s="10" t="n"/>
+      <c r="ZX2" s="10" t="n"/>
+      <c r="ZY2" s="10" t="n"/>
+      <c r="ZZ2" s="10" t="n"/>
+      <c r="AAA2" s="10" t="n"/>
+      <c r="AAB2" s="10" t="n"/>
+      <c r="AAC2" s="10" t="n"/>
+      <c r="AAD2" s="10" t="n"/>
+      <c r="AAE2" s="10" t="n"/>
+      <c r="AAF2" s="10" t="n"/>
+      <c r="AAG2" s="10" t="n"/>
+      <c r="AAH2" s="10" t="n"/>
+      <c r="AAI2" s="10" t="n"/>
+      <c r="AAJ2" s="10" t="n"/>
+      <c r="AAK2" s="10" t="n"/>
+      <c r="AAL2" s="10" t="n"/>
+      <c r="AAM2" s="10" t="n"/>
+      <c r="AAN2" s="10" t="n"/>
+      <c r="AAO2" s="10" t="n"/>
+      <c r="AAP2" s="10" t="n"/>
+      <c r="AAQ2" s="10" t="n"/>
+      <c r="AAR2" s="10" t="n"/>
+      <c r="AAS2" s="10" t="n"/>
+      <c r="AAT2" s="10" t="n"/>
+      <c r="AAU2" s="10" t="n"/>
+      <c r="AAV2" s="10" t="n"/>
+      <c r="AAW2" s="10" t="n"/>
+      <c r="AAX2" s="10" t="n"/>
+      <c r="AAY2" s="10" t="n"/>
+      <c r="AAZ2" s="10" t="n"/>
+      <c r="ABA2" s="10" t="n"/>
+      <c r="ABB2" s="10" t="n"/>
+      <c r="ABC2" s="10" t="n"/>
+      <c r="ABD2" s="10" t="n"/>
+      <c r="ABE2" s="10" t="n"/>
+      <c r="ABF2" s="10" t="n"/>
+      <c r="ABG2" s="10" t="n"/>
+      <c r="ABH2" s="10" t="n"/>
+      <c r="ABI2" s="10" t="n"/>
+      <c r="ABJ2" s="10" t="n"/>
+      <c r="ABK2" s="10" t="n"/>
+      <c r="ABL2" s="10" t="n"/>
+      <c r="ABM2" s="10" t="n"/>
+      <c r="ABN2" s="10" t="n"/>
+      <c r="ABO2" s="10" t="n"/>
+      <c r="ABP2" s="10" t="n"/>
+      <c r="ABQ2" s="10" t="n"/>
+      <c r="ABR2" s="10" t="n"/>
+      <c r="ABS2" s="10" t="n"/>
+      <c r="ABT2" s="10" t="n"/>
+      <c r="ABU2" s="10" t="n"/>
+      <c r="ABV2" s="10" t="n"/>
+      <c r="ABW2" s="10" t="n"/>
+      <c r="ABX2" s="10" t="n"/>
+      <c r="ABY2" s="10" t="n"/>
+      <c r="ABZ2" s="10" t="n"/>
+      <c r="ACA2" s="10" t="n"/>
+      <c r="ACB2" s="10" t="n"/>
+      <c r="ACC2" s="10" t="n"/>
+      <c r="ACD2" s="10" t="n"/>
+      <c r="ACE2" s="10" t="n"/>
+      <c r="ACF2" s="10" t="n"/>
+      <c r="ACG2" s="10" t="n"/>
+      <c r="ACH2" s="10" t="n"/>
+      <c r="ACI2" s="10" t="n"/>
+      <c r="ACJ2" s="10" t="n"/>
+      <c r="ACK2" s="10" t="n"/>
+      <c r="ACL2" s="10" t="n"/>
+      <c r="ACM2" s="10" t="n"/>
+      <c r="ACN2" s="10" t="n"/>
+      <c r="ACO2" s="10" t="n"/>
+      <c r="ACP2" s="10" t="n"/>
+      <c r="ACQ2" s="10" t="n"/>
+      <c r="ACR2" s="10" t="n"/>
+      <c r="ACS2" s="10" t="n"/>
+      <c r="ACT2" s="10" t="n"/>
+      <c r="ACU2" s="10" t="n"/>
+      <c r="ACV2" s="10" t="n"/>
+      <c r="ACW2" s="10" t="n"/>
+      <c r="ACX2" s="10" t="n"/>
+      <c r="ACY2" s="10" t="n"/>
+      <c r="ACZ2" s="10" t="n"/>
+      <c r="ADA2" s="10" t="n"/>
+      <c r="ADB2" s="10" t="n"/>
+      <c r="ADC2" s="10" t="n"/>
+      <c r="ADD2" s="10" t="n"/>
+      <c r="ADE2" s="10" t="n"/>
+      <c r="ADF2" s="10" t="n"/>
+      <c r="ADG2" s="10" t="n"/>
+      <c r="ADH2" s="10" t="n"/>
+      <c r="ADI2" s="10" t="n"/>
+      <c r="ADJ2" s="10" t="n"/>
+      <c r="ADK2" s="10" t="n"/>
+      <c r="ADL2" s="10" t="n"/>
+      <c r="ADM2" s="10" t="n"/>
+      <c r="ADN2" s="10" t="n"/>
+      <c r="ADO2" s="10" t="n"/>
+      <c r="ADP2" s="10" t="n"/>
+      <c r="ADQ2" s="10" t="n"/>
+      <c r="ADR2" s="10" t="n"/>
+      <c r="ADS2" s="10" t="n"/>
+      <c r="ADT2" s="10" t="n"/>
+      <c r="ADU2" s="10" t="n"/>
+      <c r="ADV2" s="10" t="n"/>
+      <c r="ADW2" s="10" t="n"/>
+      <c r="ADX2" s="10" t="n"/>
+      <c r="ADY2" s="10" t="n"/>
+      <c r="ADZ2" s="10" t="n"/>
+      <c r="AEA2" s="10" t="n"/>
+      <c r="AEB2" s="10" t="n"/>
+      <c r="AEC2" s="10" t="n"/>
+      <c r="AED2" s="10" t="n"/>
+      <c r="AEE2" s="10" t="n"/>
+      <c r="AEF2" s="10" t="n"/>
+      <c r="AEG2" s="10" t="n"/>
+      <c r="AEH2" s="10" t="n"/>
+      <c r="AEI2" s="10" t="n"/>
+      <c r="AEJ2" s="10" t="n"/>
+      <c r="AEK2" s="10" t="n"/>
+      <c r="AEL2" s="10" t="n"/>
+      <c r="AEM2" s="10" t="n"/>
+      <c r="AEN2" s="10" t="n"/>
+      <c r="AEO2" s="10" t="n"/>
+      <c r="AEP2" s="10" t="n"/>
+      <c r="AEQ2" s="10" t="n"/>
+      <c r="AER2" s="10" t="n"/>
+      <c r="AES2" s="10" t="n"/>
+      <c r="AET2" s="10" t="n"/>
+      <c r="AEU2" s="10" t="n"/>
+      <c r="AEV2" s="10" t="n"/>
+      <c r="AEW2" s="10" t="n"/>
+      <c r="AEX2" s="10" t="n"/>
+      <c r="AEY2" s="10" t="n"/>
+      <c r="AEZ2" s="10" t="n"/>
+      <c r="AFA2" s="10" t="n"/>
+      <c r="AFB2" s="10" t="n"/>
+      <c r="AFC2" s="10" t="n"/>
+      <c r="AFD2" s="10" t="n"/>
+      <c r="AFE2" s="10" t="n"/>
+      <c r="AFF2" s="10" t="n"/>
+      <c r="AFG2" s="10" t="n"/>
+      <c r="AFH2" s="10" t="n"/>
+      <c r="AFI2" s="10" t="n"/>
+      <c r="AFJ2" s="10" t="n"/>
+      <c r="AFK2" s="10" t="n"/>
+      <c r="AFL2" s="10" t="n"/>
+      <c r="AFM2" s="10" t="n"/>
+      <c r="AFN2" s="10" t="n"/>
+      <c r="AFO2" s="10" t="n"/>
+      <c r="AFP2" s="10" t="n"/>
+      <c r="AFQ2" s="10" t="n"/>
+      <c r="AFR2" s="10" t="n"/>
+      <c r="AFS2" s="10" t="n"/>
+      <c r="AFT2" s="10" t="n"/>
+      <c r="AFU2" s="10" t="n"/>
+      <c r="AFV2" s="10" t="n"/>
+      <c r="AFW2" s="10" t="n"/>
+      <c r="AFX2" s="10" t="n"/>
+      <c r="AFY2" s="10" t="n"/>
+      <c r="AFZ2" s="10" t="n"/>
+      <c r="AGA2" s="10" t="n"/>
+      <c r="AGB2" s="10" t="n"/>
+      <c r="AGC2" s="10" t="n"/>
+      <c r="AGD2" s="10" t="n"/>
+      <c r="AGE2" s="10" t="n"/>
+      <c r="AGF2" s="10" t="n"/>
+      <c r="AGG2" s="10" t="n"/>
+      <c r="AGH2" s="10" t="n"/>
+      <c r="AGI2" s="10" t="n"/>
+      <c r="AGJ2" s="10" t="n"/>
+      <c r="AGK2" s="10" t="n"/>
+      <c r="AGL2" s="10" t="n"/>
+      <c r="AGM2" s="10" t="n"/>
+      <c r="AGN2" s="10" t="n"/>
+      <c r="AGO2" s="10" t="n"/>
+      <c r="AGP2" s="10" t="n"/>
+      <c r="AGQ2" s="10" t="n"/>
+      <c r="AGR2" s="10" t="n"/>
+      <c r="AGS2" s="10" t="n"/>
+      <c r="AGT2" s="10" t="n"/>
+      <c r="AGU2" s="10" t="n"/>
+      <c r="AGV2" s="10" t="n"/>
+      <c r="AGW2" s="10" t="n"/>
+      <c r="AGX2" s="10" t="n"/>
+      <c r="AGY2" s="10" t="n"/>
+      <c r="AGZ2" s="10" t="n"/>
+      <c r="AHA2" s="10" t="n"/>
+      <c r="AHB2" s="10" t="n"/>
+      <c r="AHC2" s="10" t="n"/>
+      <c r="AHD2" s="10" t="n"/>
+      <c r="AHE2" s="10" t="n"/>
+      <c r="AHF2" s="10" t="n"/>
+      <c r="AHG2" s="10" t="n"/>
+      <c r="AHH2" s="10" t="n"/>
+      <c r="AHI2" s="10" t="n"/>
+      <c r="AHJ2" s="10" t="n"/>
+      <c r="AHK2" s="10" t="n"/>
+      <c r="AHL2" s="10" t="n"/>
+      <c r="AHM2" s="10" t="n"/>
+      <c r="AHN2" s="10" t="n"/>
+      <c r="AHO2" s="10" t="n"/>
+      <c r="AHP2" s="10" t="n"/>
+      <c r="AHQ2" s="10" t="n"/>
+      <c r="AHR2" s="10" t="n"/>
+      <c r="AHS2" s="10" t="n"/>
+      <c r="AHT2" s="10" t="n"/>
+      <c r="AHU2" s="10" t="n"/>
+      <c r="AHV2" s="10" t="n"/>
+      <c r="AHW2" s="10" t="n"/>
+      <c r="AHX2" s="10" t="n"/>
+      <c r="AHY2" s="10" t="n"/>
+      <c r="AHZ2" s="10" t="n"/>
+      <c r="AIA2" s="10" t="n"/>
+      <c r="AIB2" s="10" t="n"/>
+      <c r="AIC2" s="10" t="n"/>
+      <c r="AID2" s="10" t="n"/>
+      <c r="AIE2" s="10" t="n"/>
+      <c r="AIF2" s="10" t="n"/>
+      <c r="AIG2" s="10" t="n"/>
+      <c r="AIH2" s="10" t="n"/>
+      <c r="AII2" s="10" t="n"/>
+      <c r="AIJ2" s="10" t="n"/>
+      <c r="AIK2" s="10" t="n"/>
+      <c r="AIL2" s="10" t="n"/>
+      <c r="AIM2" s="10" t="n"/>
+      <c r="AIN2" s="10" t="n"/>
+      <c r="AIO2" s="10" t="n"/>
+      <c r="AIP2" s="10" t="n"/>
+      <c r="AIQ2" s="10" t="n"/>
+      <c r="AIR2" s="10" t="n"/>
+      <c r="AIS2" s="10" t="n"/>
+      <c r="AIT2" s="10" t="n"/>
+      <c r="AIU2" s="10" t="n"/>
+      <c r="AIV2" s="10" t="n"/>
+      <c r="AIW2" s="10" t="n"/>
+      <c r="AIX2" s="10" t="n"/>
+      <c r="AIY2" s="10" t="n"/>
+      <c r="AIZ2" s="10" t="n"/>
+      <c r="AJA2" s="10" t="n"/>
+      <c r="AJB2" s="10" t="n"/>
+      <c r="AJC2" s="10" t="n"/>
+      <c r="AJD2" s="10" t="n"/>
+      <c r="AJE2" s="10" t="n"/>
+      <c r="AJF2" s="10" t="n"/>
+      <c r="AJG2" s="10" t="n"/>
+      <c r="AJH2" s="10" t="n"/>
+      <c r="AJI2" s="10" t="n"/>
+      <c r="AJJ2" s="10" t="n"/>
+      <c r="AJK2" s="10" t="n"/>
+      <c r="AJL2" s="10" t="n"/>
+      <c r="AJM2" s="10" t="n"/>
+      <c r="AJN2" s="10" t="n"/>
+      <c r="AJO2" s="10" t="n"/>
+      <c r="AJP2" s="10" t="n"/>
+      <c r="AJQ2" s="10" t="n"/>
+      <c r="AJR2" s="10" t="n"/>
+      <c r="AJS2" s="10" t="n"/>
+      <c r="AJT2" s="10" t="n"/>
+      <c r="AJU2" s="10" t="n"/>
+      <c r="AJV2" s="10" t="n"/>
+      <c r="AJW2" s="10" t="n"/>
+      <c r="AJX2" s="10" t="n"/>
+      <c r="AJY2" s="10" t="n"/>
+      <c r="AJZ2" s="10" t="n"/>
+      <c r="AKA2" s="10" t="n"/>
+      <c r="AKB2" s="10" t="n"/>
+      <c r="AKC2" s="10" t="n"/>
+      <c r="AKD2" s="10" t="n"/>
+      <c r="AKE2" s="10" t="n"/>
+      <c r="AKF2" s="10" t="n"/>
+      <c r="AKG2" s="10" t="n"/>
+      <c r="AKH2" s="10" t="n"/>
+      <c r="AKI2" s="10" t="n"/>
+      <c r="AKJ2" s="10" t="n"/>
+      <c r="AKK2" s="10" t="n"/>
+      <c r="AKL2" s="10" t="n"/>
+      <c r="AKM2" s="10" t="n"/>
+      <c r="AKN2" s="10" t="n"/>
+      <c r="AKO2" s="10" t="n"/>
+      <c r="AKP2" s="10" t="n"/>
+      <c r="AKQ2" s="10" t="n"/>
+      <c r="AKR2" s="10" t="n"/>
+      <c r="AKS2" s="10" t="n"/>
+      <c r="AKT2" s="10" t="n"/>
+      <c r="AKU2" s="10" t="n"/>
+      <c r="AKV2" s="10" t="n"/>
+      <c r="AKW2" s="10" t="n"/>
+      <c r="AKX2" s="10" t="n"/>
+      <c r="AKY2" s="10" t="n"/>
+      <c r="AKZ2" s="10" t="n"/>
+      <c r="ALA2" s="10" t="n"/>
+      <c r="ALB2" s="10" t="n"/>
+      <c r="ALC2" s="10" t="n"/>
+      <c r="ALD2" s="10" t="n"/>
+      <c r="ALE2" s="10" t="n"/>
+      <c r="ALF2" s="10" t="n"/>
+      <c r="ALG2" s="10" t="n"/>
+      <c r="ALH2" s="10" t="n"/>
+      <c r="ALI2" s="10" t="n"/>
+      <c r="ALJ2" s="10" t="n"/>
+      <c r="ALK2" s="10" t="n"/>
+      <c r="ALL2" s="10" t="n"/>
+      <c r="ALM2" s="10" t="n"/>
+      <c r="ALN2" s="10" t="n"/>
+      <c r="ALO2" s="10" t="n"/>
+      <c r="ALP2" s="10" t="n"/>
+      <c r="ALQ2" s="10" t="n"/>
+      <c r="ALR2" s="10" t="n"/>
+      <c r="ALS2" s="10" t="n"/>
+      <c r="ALT2" s="10" t="n"/>
+      <c r="ALU2" s="10" t="n"/>
+      <c r="ALV2" s="10" t="n"/>
+      <c r="ALW2" s="10" t="n"/>
+      <c r="ALX2" s="10" t="n"/>
+      <c r="ALY2" s="10" t="n"/>
+      <c r="ALZ2" s="10" t="n"/>
+      <c r="AMA2" s="10" t="n"/>
+      <c r="AMB2" s="10" t="n"/>
+      <c r="AMC2" s="10" t="n"/>
+      <c r="AMD2" s="10" t="n"/>
+      <c r="AME2" s="10" t="n"/>
+      <c r="AMF2" s="10" t="n"/>
+      <c r="AMG2" s="10" t="n"/>
+      <c r="AMH2" s="10" t="n"/>
+      <c r="AMI2" s="10" t="n"/>
+      <c r="AMJ2" s="10" t="n"/>
+    </row>
     <row r="3" spans="1:1024"/>
-    <row customFormat="1" customHeight="1" ht="13.9" r="4" s="1" spans="1:1024">
-      <c r="B4" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="13.9" r="4" s="2" spans="1:1024">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1024"/>
-    <row customFormat="1" customHeight="1" ht="15.75" r="6" s="1" spans="1:1024">
-      <c r="B6" s="3" t="s">
+    <row customHeight="1" ht="13.5" r="5" s="49" spans="1:1024">
+      <c r="A5" s="10" t="n"/>
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="10" t="n"/>
+      <c r="D5" s="10" t="n"/>
+      <c r="E5" s="10" t="n"/>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="10" t="n"/>
+      <c r="H5" s="10" t="n"/>
+      <c r="I5" s="10" t="n"/>
+      <c r="J5" s="10" t="n"/>
+      <c r="K5" s="10" t="n"/>
+      <c r="L5" s="10" t="n"/>
+      <c r="M5" s="10" t="n"/>
+      <c r="N5" s="10" t="n"/>
+      <c r="O5" s="10" t="n"/>
+      <c r="P5" s="10" t="n"/>
+      <c r="Q5" s="10" t="n"/>
+      <c r="R5" s="10" t="n"/>
+      <c r="S5" s="10" t="n"/>
+      <c r="T5" s="10" t="n"/>
+      <c r="U5" s="10" t="n"/>
+      <c r="V5" s="10" t="n"/>
+      <c r="W5" s="10" t="n"/>
+      <c r="X5" s="10" t="n"/>
+      <c r="Y5" s="10" t="n"/>
+      <c r="Z5" s="10" t="n"/>
+      <c r="AA5" s="10" t="n"/>
+      <c r="AB5" s="10" t="n"/>
+      <c r="AC5" s="10" t="n"/>
+      <c r="AD5" s="10" t="n"/>
+      <c r="AE5" s="10" t="n"/>
+      <c r="AF5" s="10" t="n"/>
+      <c r="AG5" s="10" t="n"/>
+      <c r="AH5" s="10" t="n"/>
+      <c r="AI5" s="10" t="n"/>
+      <c r="AJ5" s="10" t="n"/>
+      <c r="AK5" s="10" t="n"/>
+      <c r="AL5" s="10" t="n"/>
+      <c r="AM5" s="10" t="n"/>
+      <c r="AN5" s="10" t="n"/>
+      <c r="AO5" s="10" t="n"/>
+      <c r="AP5" s="10" t="n"/>
+      <c r="AQ5" s="10" t="n"/>
+      <c r="AR5" s="10" t="n"/>
+      <c r="AS5" s="10" t="n"/>
+      <c r="AT5" s="10" t="n"/>
+      <c r="AU5" s="10" t="n"/>
+      <c r="AV5" s="10" t="n"/>
+      <c r="AW5" s="10" t="n"/>
+      <c r="AX5" s="10" t="n"/>
+      <c r="AY5" s="10" t="n"/>
+      <c r="AZ5" s="10" t="n"/>
+      <c r="BA5" s="10" t="n"/>
+      <c r="BB5" s="10" t="n"/>
+      <c r="BC5" s="10" t="n"/>
+      <c r="BD5" s="10" t="n"/>
+      <c r="BE5" s="10" t="n"/>
+      <c r="BF5" s="10" t="n"/>
+      <c r="BG5" s="10" t="n"/>
+      <c r="BH5" s="10" t="n"/>
+      <c r="BI5" s="10" t="n"/>
+      <c r="BJ5" s="10" t="n"/>
+      <c r="BK5" s="10" t="n"/>
+      <c r="BL5" s="10" t="n"/>
+      <c r="BM5" s="10" t="n"/>
+      <c r="BN5" s="10" t="n"/>
+      <c r="BO5" s="10" t="n"/>
+      <c r="BP5" s="10" t="n"/>
+      <c r="BQ5" s="10" t="n"/>
+      <c r="BR5" s="10" t="n"/>
+      <c r="BS5" s="10" t="n"/>
+      <c r="BT5" s="10" t="n"/>
+      <c r="BU5" s="10" t="n"/>
+      <c r="BV5" s="10" t="n"/>
+      <c r="BW5" s="10" t="n"/>
+      <c r="BX5" s="10" t="n"/>
+      <c r="BY5" s="10" t="n"/>
+      <c r="BZ5" s="10" t="n"/>
+      <c r="CA5" s="10" t="n"/>
+      <c r="CB5" s="10" t="n"/>
+      <c r="CC5" s="10" t="n"/>
+      <c r="CD5" s="10" t="n"/>
+      <c r="CE5" s="10" t="n"/>
+      <c r="CF5" s="10" t="n"/>
+      <c r="CG5" s="10" t="n"/>
+      <c r="CH5" s="10" t="n"/>
+      <c r="CI5" s="10" t="n"/>
+      <c r="CJ5" s="10" t="n"/>
+      <c r="CK5" s="10" t="n"/>
+      <c r="CL5" s="10" t="n"/>
+      <c r="CM5" s="10" t="n"/>
+      <c r="CN5" s="10" t="n"/>
+      <c r="CO5" s="10" t="n"/>
+      <c r="CP5" s="10" t="n"/>
+      <c r="CQ5" s="10" t="n"/>
+      <c r="CR5" s="10" t="n"/>
+      <c r="CS5" s="10" t="n"/>
+      <c r="CT5" s="10" t="n"/>
+      <c r="CU5" s="10" t="n"/>
+      <c r="CV5" s="10" t="n"/>
+      <c r="CW5" s="10" t="n"/>
+      <c r="CX5" s="10" t="n"/>
+      <c r="CY5" s="10" t="n"/>
+      <c r="CZ5" s="10" t="n"/>
+      <c r="DA5" s="10" t="n"/>
+      <c r="DB5" s="10" t="n"/>
+      <c r="DC5" s="10" t="n"/>
+      <c r="DD5" s="10" t="n"/>
+      <c r="DE5" s="10" t="n"/>
+      <c r="DF5" s="10" t="n"/>
+      <c r="DG5" s="10" t="n"/>
+      <c r="DH5" s="10" t="n"/>
+      <c r="DI5" s="10" t="n"/>
+      <c r="DJ5" s="10" t="n"/>
+      <c r="DK5" s="10" t="n"/>
+      <c r="DL5" s="10" t="n"/>
+      <c r="DM5" s="10" t="n"/>
+      <c r="DN5" s="10" t="n"/>
+      <c r="DO5" s="10" t="n"/>
+      <c r="DP5" s="10" t="n"/>
+      <c r="DQ5" s="10" t="n"/>
+      <c r="DR5" s="10" t="n"/>
+      <c r="DS5" s="10" t="n"/>
+      <c r="DT5" s="10" t="n"/>
+      <c r="DU5" s="10" t="n"/>
+      <c r="DV5" s="10" t="n"/>
+      <c r="DW5" s="10" t="n"/>
+      <c r="DX5" s="10" t="n"/>
+      <c r="DY5" s="10" t="n"/>
+      <c r="DZ5" s="10" t="n"/>
+      <c r="EA5" s="10" t="n"/>
+      <c r="EB5" s="10" t="n"/>
+      <c r="EC5" s="10" t="n"/>
+      <c r="ED5" s="10" t="n"/>
+      <c r="EE5" s="10" t="n"/>
+      <c r="EF5" s="10" t="n"/>
+      <c r="EG5" s="10" t="n"/>
+      <c r="EH5" s="10" t="n"/>
+      <c r="EI5" s="10" t="n"/>
+      <c r="EJ5" s="10" t="n"/>
+      <c r="EK5" s="10" t="n"/>
+      <c r="EL5" s="10" t="n"/>
+      <c r="EM5" s="10" t="n"/>
+      <c r="EN5" s="10" t="n"/>
+      <c r="EO5" s="10" t="n"/>
+      <c r="EP5" s="10" t="n"/>
+      <c r="EQ5" s="10" t="n"/>
+      <c r="ER5" s="10" t="n"/>
+      <c r="ES5" s="10" t="n"/>
+      <c r="ET5" s="10" t="n"/>
+      <c r="EU5" s="10" t="n"/>
+      <c r="EV5" s="10" t="n"/>
+      <c r="EW5" s="10" t="n"/>
+      <c r="EX5" s="10" t="n"/>
+      <c r="EY5" s="10" t="n"/>
+      <c r="EZ5" s="10" t="n"/>
+      <c r="FA5" s="10" t="n"/>
+      <c r="FB5" s="10" t="n"/>
+      <c r="FC5" s="10" t="n"/>
+      <c r="FD5" s="10" t="n"/>
+      <c r="FE5" s="10" t="n"/>
+      <c r="FF5" s="10" t="n"/>
+      <c r="FG5" s="10" t="n"/>
+      <c r="FH5" s="10" t="n"/>
+      <c r="FI5" s="10" t="n"/>
+      <c r="FJ5" s="10" t="n"/>
+      <c r="FK5" s="10" t="n"/>
+      <c r="FL5" s="10" t="n"/>
+      <c r="FM5" s="10" t="n"/>
+      <c r="FN5" s="10" t="n"/>
+      <c r="FO5" s="10" t="n"/>
+      <c r="FP5" s="10" t="n"/>
+      <c r="FQ5" s="10" t="n"/>
+      <c r="FR5" s="10" t="n"/>
+      <c r="FS5" s="10" t="n"/>
+      <c r="FT5" s="10" t="n"/>
+      <c r="FU5" s="10" t="n"/>
+      <c r="FV5" s="10" t="n"/>
+      <c r="FW5" s="10" t="n"/>
+      <c r="FX5" s="10" t="n"/>
+      <c r="FY5" s="10" t="n"/>
+      <c r="FZ5" s="10" t="n"/>
+      <c r="GA5" s="10" t="n"/>
+      <c r="GB5" s="10" t="n"/>
+      <c r="GC5" s="10" t="n"/>
+      <c r="GD5" s="10" t="n"/>
+      <c r="GE5" s="10" t="n"/>
+      <c r="GF5" s="10" t="n"/>
+      <c r="GG5" s="10" t="n"/>
+      <c r="GH5" s="10" t="n"/>
+      <c r="GI5" s="10" t="n"/>
+      <c r="GJ5" s="10" t="n"/>
+      <c r="GK5" s="10" t="n"/>
+      <c r="GL5" s="10" t="n"/>
+      <c r="GM5" s="10" t="n"/>
+      <c r="GN5" s="10" t="n"/>
+      <c r="GO5" s="10" t="n"/>
+      <c r="GP5" s="10" t="n"/>
+      <c r="GQ5" s="10" t="n"/>
+      <c r="GR5" s="10" t="n"/>
+      <c r="GS5" s="10" t="n"/>
+      <c r="GT5" s="10" t="n"/>
+      <c r="GU5" s="10" t="n"/>
+      <c r="GV5" s="10" t="n"/>
+      <c r="GW5" s="10" t="n"/>
+      <c r="GX5" s="10" t="n"/>
+      <c r="GY5" s="10" t="n"/>
+      <c r="GZ5" s="10" t="n"/>
+      <c r="HA5" s="10" t="n"/>
+      <c r="HB5" s="10" t="n"/>
+      <c r="HC5" s="10" t="n"/>
+      <c r="HD5" s="10" t="n"/>
+      <c r="HE5" s="10" t="n"/>
+      <c r="HF5" s="10" t="n"/>
+      <c r="HG5" s="10" t="n"/>
+      <c r="HH5" s="10" t="n"/>
+      <c r="HI5" s="10" t="n"/>
+      <c r="HJ5" s="10" t="n"/>
+      <c r="HK5" s="10" t="n"/>
+      <c r="HL5" s="10" t="n"/>
+      <c r="HM5" s="10" t="n"/>
+      <c r="HN5" s="10" t="n"/>
+      <c r="HO5" s="10" t="n"/>
+      <c r="HP5" s="10" t="n"/>
+      <c r="HQ5" s="10" t="n"/>
+      <c r="HR5" s="10" t="n"/>
+      <c r="HS5" s="10" t="n"/>
+      <c r="HT5" s="10" t="n"/>
+      <c r="HU5" s="10" t="n"/>
+      <c r="HV5" s="10" t="n"/>
+      <c r="HW5" s="10" t="n"/>
+      <c r="HX5" s="10" t="n"/>
+      <c r="HY5" s="10" t="n"/>
+      <c r="HZ5" s="10" t="n"/>
+      <c r="IA5" s="10" t="n"/>
+      <c r="IB5" s="10" t="n"/>
+      <c r="IC5" s="10" t="n"/>
+      <c r="ID5" s="10" t="n"/>
+      <c r="IE5" s="10" t="n"/>
+      <c r="IF5" s="10" t="n"/>
+      <c r="IG5" s="10" t="n"/>
+      <c r="IH5" s="10" t="n"/>
+      <c r="II5" s="10" t="n"/>
+      <c r="IJ5" s="10" t="n"/>
+      <c r="IK5" s="10" t="n"/>
+      <c r="IL5" s="10" t="n"/>
+      <c r="IM5" s="10" t="n"/>
+      <c r="IN5" s="10" t="n"/>
+      <c r="IO5" s="10" t="n"/>
+      <c r="IP5" s="10" t="n"/>
+      <c r="IQ5" s="10" t="n"/>
+      <c r="IR5" s="10" t="n"/>
+      <c r="IS5" s="10" t="n"/>
+      <c r="IT5" s="10" t="n"/>
+      <c r="IU5" s="10" t="n"/>
+      <c r="IV5" s="10" t="n"/>
+      <c r="IW5" s="10" t="n"/>
+      <c r="IX5" s="10" t="n"/>
+      <c r="IY5" s="10" t="n"/>
+      <c r="IZ5" s="10" t="n"/>
+      <c r="JA5" s="10" t="n"/>
+      <c r="JB5" s="10" t="n"/>
+      <c r="JC5" s="10" t="n"/>
+      <c r="JD5" s="10" t="n"/>
+      <c r="JE5" s="10" t="n"/>
+      <c r="JF5" s="10" t="n"/>
+      <c r="JG5" s="10" t="n"/>
+      <c r="JH5" s="10" t="n"/>
+      <c r="JI5" s="10" t="n"/>
+      <c r="JJ5" s="10" t="n"/>
+      <c r="JK5" s="10" t="n"/>
+      <c r="JL5" s="10" t="n"/>
+      <c r="JM5" s="10" t="n"/>
+      <c r="JN5" s="10" t="n"/>
+      <c r="JO5" s="10" t="n"/>
+      <c r="JP5" s="10" t="n"/>
+      <c r="JQ5" s="10" t="n"/>
+      <c r="JR5" s="10" t="n"/>
+      <c r="JS5" s="10" t="n"/>
+      <c r="JT5" s="10" t="n"/>
+      <c r="JU5" s="10" t="n"/>
+      <c r="JV5" s="10" t="n"/>
+      <c r="JW5" s="10" t="n"/>
+      <c r="JX5" s="10" t="n"/>
+      <c r="JY5" s="10" t="n"/>
+      <c r="JZ5" s="10" t="n"/>
+      <c r="KA5" s="10" t="n"/>
+      <c r="KB5" s="10" t="n"/>
+      <c r="KC5" s="10" t="n"/>
+      <c r="KD5" s="10" t="n"/>
+      <c r="KE5" s="10" t="n"/>
+      <c r="KF5" s="10" t="n"/>
+      <c r="KG5" s="10" t="n"/>
+      <c r="KH5" s="10" t="n"/>
+      <c r="KI5" s="10" t="n"/>
+      <c r="KJ5" s="10" t="n"/>
+      <c r="KK5" s="10" t="n"/>
+      <c r="KL5" s="10" t="n"/>
+      <c r="KM5" s="10" t="n"/>
+      <c r="KN5" s="10" t="n"/>
+      <c r="KO5" s="10" t="n"/>
+      <c r="KP5" s="10" t="n"/>
+      <c r="KQ5" s="10" t="n"/>
+      <c r="KR5" s="10" t="n"/>
+      <c r="KS5" s="10" t="n"/>
+      <c r="KT5" s="10" t="n"/>
+      <c r="KU5" s="10" t="n"/>
+      <c r="KV5" s="10" t="n"/>
+      <c r="KW5" s="10" t="n"/>
+      <c r="KX5" s="10" t="n"/>
+      <c r="KY5" s="10" t="n"/>
+      <c r="KZ5" s="10" t="n"/>
+      <c r="LA5" s="10" t="n"/>
+      <c r="LB5" s="10" t="n"/>
+      <c r="LC5" s="10" t="n"/>
+      <c r="LD5" s="10" t="n"/>
+      <c r="LE5" s="10" t="n"/>
+      <c r="LF5" s="10" t="n"/>
+      <c r="LG5" s="10" t="n"/>
+      <c r="LH5" s="10" t="n"/>
+      <c r="LI5" s="10" t="n"/>
+      <c r="LJ5" s="10" t="n"/>
+      <c r="LK5" s="10" t="n"/>
+      <c r="LL5" s="10" t="n"/>
+      <c r="LM5" s="10" t="n"/>
+      <c r="LN5" s="10" t="n"/>
+      <c r="LO5" s="10" t="n"/>
+      <c r="LP5" s="10" t="n"/>
+      <c r="LQ5" s="10" t="n"/>
+      <c r="LR5" s="10" t="n"/>
+      <c r="LS5" s="10" t="n"/>
+      <c r="LT5" s="10" t="n"/>
+      <c r="LU5" s="10" t="n"/>
+      <c r="LV5" s="10" t="n"/>
+      <c r="LW5" s="10" t="n"/>
+      <c r="LX5" s="10" t="n"/>
+      <c r="LY5" s="10" t="n"/>
+      <c r="LZ5" s="10" t="n"/>
+      <c r="MA5" s="10" t="n"/>
+      <c r="MB5" s="10" t="n"/>
+      <c r="MC5" s="10" t="n"/>
+      <c r="MD5" s="10" t="n"/>
+      <c r="ME5" s="10" t="n"/>
+      <c r="MF5" s="10" t="n"/>
+      <c r="MG5" s="10" t="n"/>
+      <c r="MH5" s="10" t="n"/>
+      <c r="MI5" s="10" t="n"/>
+      <c r="MJ5" s="10" t="n"/>
+      <c r="MK5" s="10" t="n"/>
+      <c r="ML5" s="10" t="n"/>
+      <c r="MM5" s="10" t="n"/>
+      <c r="MN5" s="10" t="n"/>
+      <c r="MO5" s="10" t="n"/>
+      <c r="MP5" s="10" t="n"/>
+      <c r="MQ5" s="10" t="n"/>
+      <c r="MR5" s="10" t="n"/>
+      <c r="MS5" s="10" t="n"/>
+      <c r="MT5" s="10" t="n"/>
+      <c r="MU5" s="10" t="n"/>
+      <c r="MV5" s="10" t="n"/>
+      <c r="MW5" s="10" t="n"/>
+      <c r="MX5" s="10" t="n"/>
+      <c r="MY5" s="10" t="n"/>
+      <c r="MZ5" s="10" t="n"/>
+      <c r="NA5" s="10" t="n"/>
+      <c r="NB5" s="10" t="n"/>
+      <c r="NC5" s="10" t="n"/>
+      <c r="ND5" s="10" t="n"/>
+      <c r="NE5" s="10" t="n"/>
+      <c r="NF5" s="10" t="n"/>
+      <c r="NG5" s="10" t="n"/>
+      <c r="NH5" s="10" t="n"/>
+      <c r="NI5" s="10" t="n"/>
+      <c r="NJ5" s="10" t="n"/>
+      <c r="NK5" s="10" t="n"/>
+      <c r="NL5" s="10" t="n"/>
+      <c r="NM5" s="10" t="n"/>
+      <c r="NN5" s="10" t="n"/>
+      <c r="NO5" s="10" t="n"/>
+      <c r="NP5" s="10" t="n"/>
+      <c r="NQ5" s="10" t="n"/>
+      <c r="NR5" s="10" t="n"/>
+      <c r="NS5" s="10" t="n"/>
+      <c r="NT5" s="10" t="n"/>
+      <c r="NU5" s="10" t="n"/>
+      <c r="NV5" s="10" t="n"/>
+      <c r="NW5" s="10" t="n"/>
+      <c r="NX5" s="10" t="n"/>
+      <c r="NY5" s="10" t="n"/>
+      <c r="NZ5" s="10" t="n"/>
+      <c r="OA5" s="10" t="n"/>
+      <c r="OB5" s="10" t="n"/>
+      <c r="OC5" s="10" t="n"/>
+      <c r="OD5" s="10" t="n"/>
+      <c r="OE5" s="10" t="n"/>
+      <c r="OF5" s="10" t="n"/>
+      <c r="OG5" s="10" t="n"/>
+      <c r="OH5" s="10" t="n"/>
+      <c r="OI5" s="10" t="n"/>
+      <c r="OJ5" s="10" t="n"/>
+      <c r="OK5" s="10" t="n"/>
+      <c r="OL5" s="10" t="n"/>
+      <c r="OM5" s="10" t="n"/>
+      <c r="ON5" s="10" t="n"/>
+      <c r="OO5" s="10" t="n"/>
+      <c r="OP5" s="10" t="n"/>
+      <c r="OQ5" s="10" t="n"/>
+      <c r="OR5" s="10" t="n"/>
+      <c r="OS5" s="10" t="n"/>
+      <c r="OT5" s="10" t="n"/>
+      <c r="OU5" s="10" t="n"/>
+      <c r="OV5" s="10" t="n"/>
+      <c r="OW5" s="10" t="n"/>
+      <c r="OX5" s="10" t="n"/>
+      <c r="OY5" s="10" t="n"/>
+      <c r="OZ5" s="10" t="n"/>
+      <c r="PA5" s="10" t="n"/>
+      <c r="PB5" s="10" t="n"/>
+      <c r="PC5" s="10" t="n"/>
+      <c r="PD5" s="10" t="n"/>
+      <c r="PE5" s="10" t="n"/>
+      <c r="PF5" s="10" t="n"/>
+      <c r="PG5" s="10" t="n"/>
+      <c r="PH5" s="10" t="n"/>
+      <c r="PI5" s="10" t="n"/>
+      <c r="PJ5" s="10" t="n"/>
+      <c r="PK5" s="10" t="n"/>
+      <c r="PL5" s="10" t="n"/>
+      <c r="PM5" s="10" t="n"/>
+      <c r="PN5" s="10" t="n"/>
+      <c r="PO5" s="10" t="n"/>
+      <c r="PP5" s="10" t="n"/>
+      <c r="PQ5" s="10" t="n"/>
+      <c r="PR5" s="10" t="n"/>
+      <c r="PS5" s="10" t="n"/>
+      <c r="PT5" s="10" t="n"/>
+      <c r="PU5" s="10" t="n"/>
+      <c r="PV5" s="10" t="n"/>
+      <c r="PW5" s="10" t="n"/>
+      <c r="PX5" s="10" t="n"/>
+      <c r="PY5" s="10" t="n"/>
+      <c r="PZ5" s="10" t="n"/>
+      <c r="QA5" s="10" t="n"/>
+      <c r="QB5" s="10" t="n"/>
+      <c r="QC5" s="10" t="n"/>
+      <c r="QD5" s="10" t="n"/>
+      <c r="QE5" s="10" t="n"/>
+      <c r="QF5" s="10" t="n"/>
+      <c r="QG5" s="10" t="n"/>
+      <c r="QH5" s="10" t="n"/>
+      <c r="QI5" s="10" t="n"/>
+      <c r="QJ5" s="10" t="n"/>
+      <c r="QK5" s="10" t="n"/>
+      <c r="QL5" s="10" t="n"/>
+      <c r="QM5" s="10" t="n"/>
+      <c r="QN5" s="10" t="n"/>
+      <c r="QO5" s="10" t="n"/>
+      <c r="QP5" s="10" t="n"/>
+      <c r="QQ5" s="10" t="n"/>
+      <c r="QR5" s="10" t="n"/>
+      <c r="QS5" s="10" t="n"/>
+      <c r="QT5" s="10" t="n"/>
+      <c r="QU5" s="10" t="n"/>
+      <c r="QV5" s="10" t="n"/>
+      <c r="QW5" s="10" t="n"/>
+      <c r="QX5" s="10" t="n"/>
+      <c r="QY5" s="10" t="n"/>
+      <c r="QZ5" s="10" t="n"/>
+      <c r="RA5" s="10" t="n"/>
+      <c r="RB5" s="10" t="n"/>
+      <c r="RC5" s="10" t="n"/>
+      <c r="RD5" s="10" t="n"/>
+      <c r="RE5" s="10" t="n"/>
+      <c r="RF5" s="10" t="n"/>
+      <c r="RG5" s="10" t="n"/>
+      <c r="RH5" s="10" t="n"/>
+      <c r="RI5" s="10" t="n"/>
+      <c r="RJ5" s="10" t="n"/>
+      <c r="RK5" s="10" t="n"/>
+      <c r="RL5" s="10" t="n"/>
+      <c r="RM5" s="10" t="n"/>
+      <c r="RN5" s="10" t="n"/>
+      <c r="RO5" s="10" t="n"/>
+      <c r="RP5" s="10" t="n"/>
+      <c r="RQ5" s="10" t="n"/>
+      <c r="RR5" s="10" t="n"/>
+      <c r="RS5" s="10" t="n"/>
+      <c r="RT5" s="10" t="n"/>
+      <c r="RU5" s="10" t="n"/>
+      <c r="RV5" s="10" t="n"/>
+      <c r="RW5" s="10" t="n"/>
+      <c r="RX5" s="10" t="n"/>
+      <c r="RY5" s="10" t="n"/>
+      <c r="RZ5" s="10" t="n"/>
+      <c r="SA5" s="10" t="n"/>
+      <c r="SB5" s="10" t="n"/>
+      <c r="SC5" s="10" t="n"/>
+      <c r="SD5" s="10" t="n"/>
+      <c r="SE5" s="10" t="n"/>
+      <c r="SF5" s="10" t="n"/>
+      <c r="SG5" s="10" t="n"/>
+      <c r="SH5" s="10" t="n"/>
+      <c r="SI5" s="10" t="n"/>
+      <c r="SJ5" s="10" t="n"/>
+      <c r="SK5" s="10" t="n"/>
+      <c r="SL5" s="10" t="n"/>
+      <c r="SM5" s="10" t="n"/>
+      <c r="SN5" s="10" t="n"/>
+      <c r="SO5" s="10" t="n"/>
+      <c r="SP5" s="10" t="n"/>
+      <c r="SQ5" s="10" t="n"/>
+      <c r="SR5" s="10" t="n"/>
+      <c r="SS5" s="10" t="n"/>
+      <c r="ST5" s="10" t="n"/>
+      <c r="SU5" s="10" t="n"/>
+      <c r="SV5" s="10" t="n"/>
+      <c r="SW5" s="10" t="n"/>
+      <c r="SX5" s="10" t="n"/>
+      <c r="SY5" s="10" t="n"/>
+      <c r="SZ5" s="10" t="n"/>
+      <c r="TA5" s="10" t="n"/>
+      <c r="TB5" s="10" t="n"/>
+      <c r="TC5" s="10" t="n"/>
+      <c r="TD5" s="10" t="n"/>
+      <c r="TE5" s="10" t="n"/>
+      <c r="TF5" s="10" t="n"/>
+      <c r="TG5" s="10" t="n"/>
+      <c r="TH5" s="10" t="n"/>
+      <c r="TI5" s="10" t="n"/>
+      <c r="TJ5" s="10" t="n"/>
+      <c r="TK5" s="10" t="n"/>
+      <c r="TL5" s="10" t="n"/>
+      <c r="TM5" s="10" t="n"/>
+      <c r="TN5" s="10" t="n"/>
+      <c r="TO5" s="10" t="n"/>
+      <c r="TP5" s="10" t="n"/>
+      <c r="TQ5" s="10" t="n"/>
+      <c r="TR5" s="10" t="n"/>
+      <c r="TS5" s="10" t="n"/>
+      <c r="TT5" s="10" t="n"/>
+      <c r="TU5" s="10" t="n"/>
+      <c r="TV5" s="10" t="n"/>
+      <c r="TW5" s="10" t="n"/>
+      <c r="TX5" s="10" t="n"/>
+      <c r="TY5" s="10" t="n"/>
+      <c r="TZ5" s="10" t="n"/>
+      <c r="UA5" s="10" t="n"/>
+      <c r="UB5" s="10" t="n"/>
+      <c r="UC5" s="10" t="n"/>
+      <c r="UD5" s="10" t="n"/>
+      <c r="UE5" s="10" t="n"/>
+      <c r="UF5" s="10" t="n"/>
+      <c r="UG5" s="10" t="n"/>
+      <c r="UH5" s="10" t="n"/>
+      <c r="UI5" s="10" t="n"/>
+      <c r="UJ5" s="10" t="n"/>
+      <c r="UK5" s="10" t="n"/>
+      <c r="UL5" s="10" t="n"/>
+      <c r="UM5" s="10" t="n"/>
+      <c r="UN5" s="10" t="n"/>
+      <c r="UO5" s="10" t="n"/>
+      <c r="UP5" s="10" t="n"/>
+      <c r="UQ5" s="10" t="n"/>
+      <c r="UR5" s="10" t="n"/>
+      <c r="US5" s="10" t="n"/>
+      <c r="UT5" s="10" t="n"/>
+      <c r="UU5" s="10" t="n"/>
+      <c r="UV5" s="10" t="n"/>
+      <c r="UW5" s="10" t="n"/>
+      <c r="UX5" s="10" t="n"/>
+      <c r="UY5" s="10" t="n"/>
+      <c r="UZ5" s="10" t="n"/>
+      <c r="VA5" s="10" t="n"/>
+      <c r="VB5" s="10" t="n"/>
+      <c r="VC5" s="10" t="n"/>
+      <c r="VD5" s="10" t="n"/>
+      <c r="VE5" s="10" t="n"/>
+      <c r="VF5" s="10" t="n"/>
+      <c r="VG5" s="10" t="n"/>
+      <c r="VH5" s="10" t="n"/>
+      <c r="VI5" s="10" t="n"/>
+      <c r="VJ5" s="10" t="n"/>
+      <c r="VK5" s="10" t="n"/>
+      <c r="VL5" s="10" t="n"/>
+      <c r="VM5" s="10" t="n"/>
+      <c r="VN5" s="10" t="n"/>
+      <c r="VO5" s="10" t="n"/>
+      <c r="VP5" s="10" t="n"/>
+      <c r="VQ5" s="10" t="n"/>
+      <c r="VR5" s="10" t="n"/>
+      <c r="VS5" s="10" t="n"/>
+      <c r="VT5" s="10" t="n"/>
+      <c r="VU5" s="10" t="n"/>
+      <c r="VV5" s="10" t="n"/>
+      <c r="VW5" s="10" t="n"/>
+      <c r="VX5" s="10" t="n"/>
+      <c r="VY5" s="10" t="n"/>
+      <c r="VZ5" s="10" t="n"/>
+      <c r="WA5" s="10" t="n"/>
+      <c r="WB5" s="10" t="n"/>
+      <c r="WC5" s="10" t="n"/>
+      <c r="WD5" s="10" t="n"/>
+      <c r="WE5" s="10" t="n"/>
+      <c r="WF5" s="10" t="n"/>
+      <c r="WG5" s="10" t="n"/>
+      <c r="WH5" s="10" t="n"/>
+      <c r="WI5" s="10" t="n"/>
+      <c r="WJ5" s="10" t="n"/>
+      <c r="WK5" s="10" t="n"/>
+      <c r="WL5" s="10" t="n"/>
+      <c r="WM5" s="10" t="n"/>
+      <c r="WN5" s="10" t="n"/>
+      <c r="WO5" s="10" t="n"/>
+      <c r="WP5" s="10" t="n"/>
+      <c r="WQ5" s="10" t="n"/>
+      <c r="WR5" s="10" t="n"/>
+      <c r="WS5" s="10" t="n"/>
+      <c r="WT5" s="10" t="n"/>
+      <c r="WU5" s="10" t="n"/>
+      <c r="WV5" s="10" t="n"/>
+      <c r="WW5" s="10" t="n"/>
+      <c r="WX5" s="10" t="n"/>
+      <c r="WY5" s="10" t="n"/>
+      <c r="WZ5" s="10" t="n"/>
+      <c r="XA5" s="10" t="n"/>
+      <c r="XB5" s="10" t="n"/>
+      <c r="XC5" s="10" t="n"/>
+      <c r="XD5" s="10" t="n"/>
+      <c r="XE5" s="10" t="n"/>
+      <c r="XF5" s="10" t="n"/>
+      <c r="XG5" s="10" t="n"/>
+      <c r="XH5" s="10" t="n"/>
+      <c r="XI5" s="10" t="n"/>
+      <c r="XJ5" s="10" t="n"/>
+      <c r="XK5" s="10" t="n"/>
+      <c r="XL5" s="10" t="n"/>
+      <c r="XM5" s="10" t="n"/>
+      <c r="XN5" s="10" t="n"/>
+      <c r="XO5" s="10" t="n"/>
+      <c r="XP5" s="10" t="n"/>
+      <c r="XQ5" s="10" t="n"/>
+      <c r="XR5" s="10" t="n"/>
+      <c r="XS5" s="10" t="n"/>
+      <c r="XT5" s="10" t="n"/>
+      <c r="XU5" s="10" t="n"/>
+      <c r="XV5" s="10" t="n"/>
+      <c r="XW5" s="10" t="n"/>
+      <c r="XX5" s="10" t="n"/>
+      <c r="XY5" s="10" t="n"/>
+      <c r="XZ5" s="10" t="n"/>
+      <c r="YA5" s="10" t="n"/>
+      <c r="YB5" s="10" t="n"/>
+      <c r="YC5" s="10" t="n"/>
+      <c r="YD5" s="10" t="n"/>
+      <c r="YE5" s="10" t="n"/>
+      <c r="YF5" s="10" t="n"/>
+      <c r="YG5" s="10" t="n"/>
+      <c r="YH5" s="10" t="n"/>
+      <c r="YI5" s="10" t="n"/>
+      <c r="YJ5" s="10" t="n"/>
+      <c r="YK5" s="10" t="n"/>
+      <c r="YL5" s="10" t="n"/>
+      <c r="YM5" s="10" t="n"/>
+      <c r="YN5" s="10" t="n"/>
+      <c r="YO5" s="10" t="n"/>
+      <c r="YP5" s="10" t="n"/>
+      <c r="YQ5" s="10" t="n"/>
+      <c r="YR5" s="10" t="n"/>
+      <c r="YS5" s="10" t="n"/>
+      <c r="YT5" s="10" t="n"/>
+      <c r="YU5" s="10" t="n"/>
+      <c r="YV5" s="10" t="n"/>
+      <c r="YW5" s="10" t="n"/>
+      <c r="YX5" s="10" t="n"/>
+      <c r="YY5" s="10" t="n"/>
+      <c r="YZ5" s="10" t="n"/>
+      <c r="ZA5" s="10" t="n"/>
+      <c r="ZB5" s="10" t="n"/>
+      <c r="ZC5" s="10" t="n"/>
+      <c r="ZD5" s="10" t="n"/>
+      <c r="ZE5" s="10" t="n"/>
+      <c r="ZF5" s="10" t="n"/>
+      <c r="ZG5" s="10" t="n"/>
+      <c r="ZH5" s="10" t="n"/>
+      <c r="ZI5" s="10" t="n"/>
+      <c r="ZJ5" s="10" t="n"/>
+      <c r="ZK5" s="10" t="n"/>
+      <c r="ZL5" s="10" t="n"/>
+      <c r="ZM5" s="10" t="n"/>
+      <c r="ZN5" s="10" t="n"/>
+      <c r="ZO5" s="10" t="n"/>
+      <c r="ZP5" s="10" t="n"/>
+      <c r="ZQ5" s="10" t="n"/>
+      <c r="ZR5" s="10" t="n"/>
+      <c r="ZS5" s="10" t="n"/>
+      <c r="ZT5" s="10" t="n"/>
+      <c r="ZU5" s="10" t="n"/>
+      <c r="ZV5" s="10" t="n"/>
+      <c r="ZW5" s="10" t="n"/>
+      <c r="ZX5" s="10" t="n"/>
+      <c r="ZY5" s="10" t="n"/>
+      <c r="ZZ5" s="10" t="n"/>
+      <c r="AAA5" s="10" t="n"/>
+      <c r="AAB5" s="10" t="n"/>
+      <c r="AAC5" s="10" t="n"/>
+      <c r="AAD5" s="10" t="n"/>
+      <c r="AAE5" s="10" t="n"/>
+      <c r="AAF5" s="10" t="n"/>
+      <c r="AAG5" s="10" t="n"/>
+      <c r="AAH5" s="10" t="n"/>
+      <c r="AAI5" s="10" t="n"/>
+      <c r="AAJ5" s="10" t="n"/>
+      <c r="AAK5" s="10" t="n"/>
+      <c r="AAL5" s="10" t="n"/>
+      <c r="AAM5" s="10" t="n"/>
+      <c r="AAN5" s="10" t="n"/>
+      <c r="AAO5" s="10" t="n"/>
+      <c r="AAP5" s="10" t="n"/>
+      <c r="AAQ5" s="10" t="n"/>
+      <c r="AAR5" s="10" t="n"/>
+      <c r="AAS5" s="10" t="n"/>
+      <c r="AAT5" s="10" t="n"/>
+      <c r="AAU5" s="10" t="n"/>
+      <c r="AAV5" s="10" t="n"/>
+      <c r="AAW5" s="10" t="n"/>
+      <c r="AAX5" s="10" t="n"/>
+      <c r="AAY5" s="10" t="n"/>
+      <c r="AAZ5" s="10" t="n"/>
+      <c r="ABA5" s="10" t="n"/>
+      <c r="ABB5" s="10" t="n"/>
+      <c r="ABC5" s="10" t="n"/>
+      <c r="ABD5" s="10" t="n"/>
+      <c r="ABE5" s="10" t="n"/>
+      <c r="ABF5" s="10" t="n"/>
+      <c r="ABG5" s="10" t="n"/>
+      <c r="ABH5" s="10" t="n"/>
+      <c r="ABI5" s="10" t="n"/>
+      <c r="ABJ5" s="10" t="n"/>
+      <c r="ABK5" s="10" t="n"/>
+      <c r="ABL5" s="10" t="n"/>
+      <c r="ABM5" s="10" t="n"/>
+      <c r="ABN5" s="10" t="n"/>
+      <c r="ABO5" s="10" t="n"/>
+      <c r="ABP5" s="10" t="n"/>
+      <c r="ABQ5" s="10" t="n"/>
+      <c r="ABR5" s="10" t="n"/>
+      <c r="ABS5" s="10" t="n"/>
+      <c r="ABT5" s="10" t="n"/>
+      <c r="ABU5" s="10" t="n"/>
+      <c r="ABV5" s="10" t="n"/>
+      <c r="ABW5" s="10" t="n"/>
+      <c r="ABX5" s="10" t="n"/>
+      <c r="ABY5" s="10" t="n"/>
+      <c r="ABZ5" s="10" t="n"/>
+      <c r="ACA5" s="10" t="n"/>
+      <c r="ACB5" s="10" t="n"/>
+      <c r="ACC5" s="10" t="n"/>
+      <c r="ACD5" s="10" t="n"/>
+      <c r="ACE5" s="10" t="n"/>
+      <c r="ACF5" s="10" t="n"/>
+      <c r="ACG5" s="10" t="n"/>
+      <c r="ACH5" s="10" t="n"/>
+      <c r="ACI5" s="10" t="n"/>
+      <c r="ACJ5" s="10" t="n"/>
+      <c r="ACK5" s="10" t="n"/>
+      <c r="ACL5" s="10" t="n"/>
+      <c r="ACM5" s="10" t="n"/>
+      <c r="ACN5" s="10" t="n"/>
+      <c r="ACO5" s="10" t="n"/>
+      <c r="ACP5" s="10" t="n"/>
+      <c r="ACQ5" s="10" t="n"/>
+      <c r="ACR5" s="10" t="n"/>
+      <c r="ACS5" s="10" t="n"/>
+      <c r="ACT5" s="10" t="n"/>
+      <c r="ACU5" s="10" t="n"/>
+      <c r="ACV5" s="10" t="n"/>
+      <c r="ACW5" s="10" t="n"/>
+      <c r="ACX5" s="10" t="n"/>
+      <c r="ACY5" s="10" t="n"/>
+      <c r="ACZ5" s="10" t="n"/>
+      <c r="ADA5" s="10" t="n"/>
+      <c r="ADB5" s="10" t="n"/>
+      <c r="ADC5" s="10" t="n"/>
+      <c r="ADD5" s="10" t="n"/>
+      <c r="ADE5" s="10" t="n"/>
+      <c r="ADF5" s="10" t="n"/>
+      <c r="ADG5" s="10" t="n"/>
+      <c r="ADH5" s="10" t="n"/>
+      <c r="ADI5" s="10" t="n"/>
+      <c r="ADJ5" s="10" t="n"/>
+      <c r="ADK5" s="10" t="n"/>
+      <c r="ADL5" s="10" t="n"/>
+      <c r="ADM5" s="10" t="n"/>
+      <c r="ADN5" s="10" t="n"/>
+      <c r="ADO5" s="10" t="n"/>
+      <c r="ADP5" s="10" t="n"/>
+      <c r="ADQ5" s="10" t="n"/>
+      <c r="ADR5" s="10" t="n"/>
+      <c r="ADS5" s="10" t="n"/>
+      <c r="ADT5" s="10" t="n"/>
+      <c r="ADU5" s="10" t="n"/>
+      <c r="ADV5" s="10" t="n"/>
+      <c r="ADW5" s="10" t="n"/>
+      <c r="ADX5" s="10" t="n"/>
+      <c r="ADY5" s="10" t="n"/>
+      <c r="ADZ5" s="10" t="n"/>
+      <c r="AEA5" s="10" t="n"/>
+      <c r="AEB5" s="10" t="n"/>
+      <c r="AEC5" s="10" t="n"/>
+      <c r="AED5" s="10" t="n"/>
+      <c r="AEE5" s="10" t="n"/>
+      <c r="AEF5" s="10" t="n"/>
+      <c r="AEG5" s="10" t="n"/>
+      <c r="AEH5" s="10" t="n"/>
+      <c r="AEI5" s="10" t="n"/>
+      <c r="AEJ5" s="10" t="n"/>
+      <c r="AEK5" s="10" t="n"/>
+      <c r="AEL5" s="10" t="n"/>
+      <c r="AEM5" s="10" t="n"/>
+      <c r="AEN5" s="10" t="n"/>
+      <c r="AEO5" s="10" t="n"/>
+      <c r="AEP5" s="10" t="n"/>
+      <c r="AEQ5" s="10" t="n"/>
+      <c r="AER5" s="10" t="n"/>
+      <c r="AES5" s="10" t="n"/>
+      <c r="AET5" s="10" t="n"/>
+      <c r="AEU5" s="10" t="n"/>
+      <c r="AEV5" s="10" t="n"/>
+      <c r="AEW5" s="10" t="n"/>
+      <c r="AEX5" s="10" t="n"/>
+      <c r="AEY5" s="10" t="n"/>
+      <c r="AEZ5" s="10" t="n"/>
+      <c r="AFA5" s="10" t="n"/>
+      <c r="AFB5" s="10" t="n"/>
+      <c r="AFC5" s="10" t="n"/>
+      <c r="AFD5" s="10" t="n"/>
+      <c r="AFE5" s="10" t="n"/>
+      <c r="AFF5" s="10" t="n"/>
+      <c r="AFG5" s="10" t="n"/>
+      <c r="AFH5" s="10" t="n"/>
+      <c r="AFI5" s="10" t="n"/>
+      <c r="AFJ5" s="10" t="n"/>
+      <c r="AFK5" s="10" t="n"/>
+      <c r="AFL5" s="10" t="n"/>
+      <c r="AFM5" s="10" t="n"/>
+      <c r="AFN5" s="10" t="n"/>
+      <c r="AFO5" s="10" t="n"/>
+      <c r="AFP5" s="10" t="n"/>
+      <c r="AFQ5" s="10" t="n"/>
+      <c r="AFR5" s="10" t="n"/>
+      <c r="AFS5" s="10" t="n"/>
+      <c r="AFT5" s="10" t="n"/>
+      <c r="AFU5" s="10" t="n"/>
+      <c r="AFV5" s="10" t="n"/>
+      <c r="AFW5" s="10" t="n"/>
+      <c r="AFX5" s="10" t="n"/>
+      <c r="AFY5" s="10" t="n"/>
+      <c r="AFZ5" s="10" t="n"/>
+      <c r="AGA5" s="10" t="n"/>
+      <c r="AGB5" s="10" t="n"/>
+      <c r="AGC5" s="10" t="n"/>
+      <c r="AGD5" s="10" t="n"/>
+      <c r="AGE5" s="10" t="n"/>
+      <c r="AGF5" s="10" t="n"/>
+      <c r="AGG5" s="10" t="n"/>
+      <c r="AGH5" s="10" t="n"/>
+      <c r="AGI5" s="10" t="n"/>
+      <c r="AGJ5" s="10" t="n"/>
+      <c r="AGK5" s="10" t="n"/>
+      <c r="AGL5" s="10" t="n"/>
+      <c r="AGM5" s="10" t="n"/>
+      <c r="AGN5" s="10" t="n"/>
+      <c r="AGO5" s="10" t="n"/>
+      <c r="AGP5" s="10" t="n"/>
+      <c r="AGQ5" s="10" t="n"/>
+      <c r="AGR5" s="10" t="n"/>
+      <c r="AGS5" s="10" t="n"/>
+      <c r="AGT5" s="10" t="n"/>
+      <c r="AGU5" s="10" t="n"/>
+      <c r="AGV5" s="10" t="n"/>
+      <c r="AGW5" s="10" t="n"/>
+      <c r="AGX5" s="10" t="n"/>
+      <c r="AGY5" s="10" t="n"/>
+      <c r="AGZ5" s="10" t="n"/>
+      <c r="AHA5" s="10" t="n"/>
+      <c r="AHB5" s="10" t="n"/>
+      <c r="AHC5" s="10" t="n"/>
+      <c r="AHD5" s="10" t="n"/>
+      <c r="AHE5" s="10" t="n"/>
+      <c r="AHF5" s="10" t="n"/>
+      <c r="AHG5" s="10" t="n"/>
+      <c r="AHH5" s="10" t="n"/>
+      <c r="AHI5" s="10" t="n"/>
+      <c r="AHJ5" s="10" t="n"/>
+      <c r="AHK5" s="10" t="n"/>
+      <c r="AHL5" s="10" t="n"/>
+      <c r="AHM5" s="10" t="n"/>
+      <c r="AHN5" s="10" t="n"/>
+      <c r="AHO5" s="10" t="n"/>
+      <c r="AHP5" s="10" t="n"/>
+      <c r="AHQ5" s="10" t="n"/>
+      <c r="AHR5" s="10" t="n"/>
+      <c r="AHS5" s="10" t="n"/>
+      <c r="AHT5" s="10" t="n"/>
+      <c r="AHU5" s="10" t="n"/>
+      <c r="AHV5" s="10" t="n"/>
+      <c r="AHW5" s="10" t="n"/>
+      <c r="AHX5" s="10" t="n"/>
+      <c r="AHY5" s="10" t="n"/>
+      <c r="AHZ5" s="10" t="n"/>
+      <c r="AIA5" s="10" t="n"/>
+      <c r="AIB5" s="10" t="n"/>
+      <c r="AIC5" s="10" t="n"/>
+      <c r="AID5" s="10" t="n"/>
+      <c r="AIE5" s="10" t="n"/>
+      <c r="AIF5" s="10" t="n"/>
+      <c r="AIG5" s="10" t="n"/>
+      <c r="AIH5" s="10" t="n"/>
+      <c r="AII5" s="10" t="n"/>
+      <c r="AIJ5" s="10" t="n"/>
+      <c r="AIK5" s="10" t="n"/>
+      <c r="AIL5" s="10" t="n"/>
+      <c r="AIM5" s="10" t="n"/>
+      <c r="AIN5" s="10" t="n"/>
+      <c r="AIO5" s="10" t="n"/>
+      <c r="AIP5" s="10" t="n"/>
+      <c r="AIQ5" s="10" t="n"/>
+      <c r="AIR5" s="10" t="n"/>
+      <c r="AIS5" s="10" t="n"/>
+      <c r="AIT5" s="10" t="n"/>
+      <c r="AIU5" s="10" t="n"/>
+      <c r="AIV5" s="10" t="n"/>
+      <c r="AIW5" s="10" t="n"/>
+      <c r="AIX5" s="10" t="n"/>
+      <c r="AIY5" s="10" t="n"/>
+      <c r="AIZ5" s="10" t="n"/>
+      <c r="AJA5" s="10" t="n"/>
+      <c r="AJB5" s="10" t="n"/>
+      <c r="AJC5" s="10" t="n"/>
+      <c r="AJD5" s="10" t="n"/>
+      <c r="AJE5" s="10" t="n"/>
+      <c r="AJF5" s="10" t="n"/>
+      <c r="AJG5" s="10" t="n"/>
+      <c r="AJH5" s="10" t="n"/>
+      <c r="AJI5" s="10" t="n"/>
+      <c r="AJJ5" s="10" t="n"/>
+      <c r="AJK5" s="10" t="n"/>
+      <c r="AJL5" s="10" t="n"/>
+      <c r="AJM5" s="10" t="n"/>
+      <c r="AJN5" s="10" t="n"/>
+      <c r="AJO5" s="10" t="n"/>
+      <c r="AJP5" s="10" t="n"/>
+      <c r="AJQ5" s="10" t="n"/>
+      <c r="AJR5" s="10" t="n"/>
+      <c r="AJS5" s="10" t="n"/>
+      <c r="AJT5" s="10" t="n"/>
+      <c r="AJU5" s="10" t="n"/>
+      <c r="AJV5" s="10" t="n"/>
+      <c r="AJW5" s="10" t="n"/>
+      <c r="AJX5" s="10" t="n"/>
+      <c r="AJY5" s="10" t="n"/>
+      <c r="AJZ5" s="10" t="n"/>
+      <c r="AKA5" s="10" t="n"/>
+      <c r="AKB5" s="10" t="n"/>
+      <c r="AKC5" s="10" t="n"/>
+      <c r="AKD5" s="10" t="n"/>
+      <c r="AKE5" s="10" t="n"/>
+      <c r="AKF5" s="10" t="n"/>
+      <c r="AKG5" s="10" t="n"/>
+      <c r="AKH5" s="10" t="n"/>
+      <c r="AKI5" s="10" t="n"/>
+      <c r="AKJ5" s="10" t="n"/>
+      <c r="AKK5" s="10" t="n"/>
+      <c r="AKL5" s="10" t="n"/>
+      <c r="AKM5" s="10" t="n"/>
+      <c r="AKN5" s="10" t="n"/>
+      <c r="AKO5" s="10" t="n"/>
+      <c r="AKP5" s="10" t="n"/>
+      <c r="AKQ5" s="10" t="n"/>
+      <c r="AKR5" s="10" t="n"/>
+      <c r="AKS5" s="10" t="n"/>
+      <c r="AKT5" s="10" t="n"/>
+      <c r="AKU5" s="10" t="n"/>
+      <c r="AKV5" s="10" t="n"/>
+      <c r="AKW5" s="10" t="n"/>
+      <c r="AKX5" s="10" t="n"/>
+      <c r="AKY5" s="10" t="n"/>
+      <c r="AKZ5" s="10" t="n"/>
+      <c r="ALA5" s="10" t="n"/>
+      <c r="ALB5" s="10" t="n"/>
+      <c r="ALC5" s="10" t="n"/>
+      <c r="ALD5" s="10" t="n"/>
+      <c r="ALE5" s="10" t="n"/>
+      <c r="ALF5" s="10" t="n"/>
+      <c r="ALG5" s="10" t="n"/>
+      <c r="ALH5" s="10" t="n"/>
+      <c r="ALI5" s="10" t="n"/>
+      <c r="ALJ5" s="10" t="n"/>
+      <c r="ALK5" s="10" t="n"/>
+      <c r="ALL5" s="10" t="n"/>
+      <c r="ALM5" s="10" t="n"/>
+      <c r="ALN5" s="10" t="n"/>
+      <c r="ALO5" s="10" t="n"/>
+      <c r="ALP5" s="10" t="n"/>
+      <c r="ALQ5" s="10" t="n"/>
+      <c r="ALR5" s="10" t="n"/>
+      <c r="ALS5" s="10" t="n"/>
+      <c r="ALT5" s="10" t="n"/>
+      <c r="ALU5" s="10" t="n"/>
+      <c r="ALV5" s="10" t="n"/>
+      <c r="ALW5" s="10" t="n"/>
+      <c r="ALX5" s="10" t="n"/>
+      <c r="ALY5" s="10" t="n"/>
+      <c r="ALZ5" s="10" t="n"/>
+      <c r="AMA5" s="10" t="n"/>
+      <c r="AMB5" s="10" t="n"/>
+      <c r="AMC5" s="10" t="n"/>
+      <c r="AMD5" s="10" t="n"/>
+      <c r="AME5" s="10" t="n"/>
+      <c r="AMF5" s="10" t="n"/>
+      <c r="AMG5" s="10" t="n"/>
+      <c r="AMH5" s="10" t="n"/>
+      <c r="AMI5" s="10" t="n"/>
+      <c r="AMJ5" s="10" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="6" s="2" spans="1:1024">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="40.5" r="7" s="8" spans="1:1024">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="5" t="s">
+    <row customFormat="1" customHeight="1" ht="40.5" r="7" s="9" spans="1:1024">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AMI7" s="1" t="n"/>
-      <c r="AMJ7" s="1" t="n"/>
+      <c r="AMI7" s="2" t="n"/>
+      <c r="AMJ7" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="8" s="48" spans="1:1024">
-      <c r="A8" s="9" t="s">
+    <row customHeight="1" ht="15.95" r="8" s="49" spans="1:1024">
+      <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="10" t="n">
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="13" t="n"/>
-      <c r="J8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="13" t="n"/>
-      <c r="L8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="12" t="s">
+      <c r="I8" s="14" t="n"/>
+      <c r="J8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="14" t="n"/>
+      <c r="L8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="4" t="n"/>
+      <c r="N8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="12" t="n"/>
-      <c r="P8" s="1" t="n"/>
+      <c r="O8" s="13" t="n"/>
+      <c r="P8" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="9" s="48" spans="1:1024">
-      <c r="A9" s="9" t="s">
+    <row customHeight="1" ht="15.95" r="9" s="49" spans="1:1024">
+      <c r="A9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="10" t="n">
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="12" t="n"/>
-      <c r="J9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="12" t="n"/>
-      <c r="L9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="12" t="s">
+      <c r="I9" s="13" t="n"/>
+      <c r="J9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="13" t="n"/>
+      <c r="L9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="4" t="n"/>
+      <c r="N9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="12" t="n"/>
-      <c r="P9" s="1" t="n"/>
+      <c r="O9" s="13" t="n"/>
+      <c r="P9" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="10" s="48" spans="1:1024">
-      <c r="A10" s="9" t="s">
+    <row customHeight="1" ht="15.95" r="10" s="49" spans="1:1024">
+      <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="10" t="n">
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="12" t="n"/>
-      <c r="J10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="12" t="n"/>
-      <c r="L10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="12" t="s">
+      <c r="I10" s="13" t="n"/>
+      <c r="J10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="13" t="n"/>
+      <c r="L10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="4" t="n"/>
+      <c r="N10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="12" t="n"/>
-      <c r="P10" s="15" t="n"/>
+      <c r="O10" s="13" t="n"/>
+      <c r="P10" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="11" s="48" spans="1:1024">
-      <c r="A11" s="9" t="s">
+    <row customHeight="1" ht="15.95" r="11" s="49" spans="1:1024">
+      <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="16" t="n">
+      <c r="B11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="20" t="n">
+      <c r="G11" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="17" t="n"/>
-      <c r="N11" s="20" t="s">
+      <c r="J11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="18" t="n"/>
+      <c r="N11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="21" t="n"/>
+      <c r="O11" s="22" t="n"/>
+      <c r="P11" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="12" s="48" spans="1:1024">
-      <c r="B12" s="22" t="n">
+    <row customHeight="1" ht="15.95" r="12" s="49" spans="1:1024">
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="23" t="n"/>
-      <c r="E12" s="24" t="n">
+      <c r="D12" s="24" t="n"/>
+      <c r="E12" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="25" t="n">
+      <c r="G12" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="23" t="n"/>
-      <c r="N12" s="25" t="s">
+      <c r="J12" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="24" t="n"/>
+      <c r="N12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="26" t="n"/>
+      <c r="O12" s="27" t="n"/>
+      <c r="P12" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="13" s="48" spans="1:1024">
-      <c r="B13" s="27" t="n">
+    <row customHeight="1" ht="15.95" r="13" s="49" spans="1:1024">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="28" t="n"/>
-      <c r="E13" s="29" t="n">
+      <c r="D13" s="29" t="n"/>
+      <c r="E13" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="31" t="n">
+      <c r="G13" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="28" t="n"/>
-      <c r="N13" s="31" t="s">
+      <c r="J13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="29" t="n"/>
+      <c r="N13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="32" t="n"/>
+      <c r="O13" s="33" t="n"/>
+      <c r="P13" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="14" s="48" spans="1:1024">
-      <c r="A14" s="9" t="s">
+    <row customHeight="1" ht="15.95" r="14" s="49" spans="1:1024">
+      <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="33" t="n">
+      <c r="B14" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="34" t="n"/>
-      <c r="E14" s="35" t="n">
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="37" t="n">
+      <c r="G14" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="37" t="s">
+      <c r="J14" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="34" t="n"/>
-      <c r="N14" s="37" t="s">
+      <c r="L14" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="35" t="n"/>
+      <c r="N14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="38" t="n"/>
+      <c r="O14" s="39" t="n"/>
+      <c r="P14" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="15" s="48" spans="1:1024">
-      <c r="B15" s="22" t="n">
+    <row customHeight="1" ht="15.95" r="15" s="49" spans="1:1024">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="23" t="n"/>
-      <c r="E15" s="24" t="n">
+      <c r="D15" s="24" t="n"/>
+      <c r="E15" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="25" t="n">
+      <c r="G15" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="25" t="s">
+      <c r="J15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="23" t="n"/>
-      <c r="N15" s="25" t="s">
+      <c r="L15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="24" t="n"/>
+      <c r="N15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="26" t="n"/>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="16" s="48" spans="1:1024">
-      <c r="B16" s="40" t="n">
+    <row customHeight="1" ht="15.95" r="16" s="49" spans="1:1024">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="41" t="n">
         <v>6</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="41" t="n"/>
-      <c r="E16" s="42" t="n">
+      <c r="D16" s="42" t="n"/>
+      <c r="E16" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="44" t="n">
+      <c r="G16" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="44" t="s">
+      <c r="J16" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="41" t="n"/>
-      <c r="N16" s="44" t="s">
+      <c r="L16" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="42" t="n"/>
+      <c r="N16" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="45" t="n"/>
+      <c r="O16" s="46" t="n"/>
+      <c r="P16" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="17" s="48" spans="1:1024">
-      <c r="A17" s="9" t="s">
+    <row customHeight="1" ht="15.95" r="17" s="49" spans="1:1024">
+      <c r="A17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="33" t="n">
+      <c r="B17" s="34" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="34" t="n"/>
-      <c r="E17" s="35" t="n">
+      <c r="D17" s="35" t="n"/>
+      <c r="E17" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="37" t="n">
+      <c r="G17" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="34" t="n"/>
-      <c r="N17" s="37" t="s">
+      <c r="J17" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="35" t="n"/>
+      <c r="N17" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="38" t="n"/>
-      <c r="P17" s="15" t="n"/>
+      <c r="O17" s="39" t="n"/>
+      <c r="P17" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="18" s="48" spans="1:1024">
-      <c r="B18" s="22" t="n">
+    <row customHeight="1" ht="15.95" r="18" s="49" spans="1:1024">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="23" t="n"/>
-      <c r="E18" s="24" t="n">
+      <c r="D18" s="24" t="n"/>
+      <c r="E18" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="25" t="n">
+      <c r="G18" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="23" t="n"/>
-      <c r="N18" s="25" t="s">
+      <c r="J18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="24" t="n"/>
+      <c r="N18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="26" t="n"/>
-      <c r="P18" s="15" t="n"/>
+      <c r="O18" s="27" t="n"/>
+      <c r="P18" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="19" s="48" spans="1:1024">
-      <c r="B19" s="40" t="n">
+    <row customHeight="1" ht="15.95" r="19" s="49" spans="1:1024">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="41" t="n">
         <v>9</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="41" t="n"/>
-      <c r="E19" s="42" t="n">
+      <c r="D19" s="42" t="n"/>
+      <c r="E19" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="44" t="n">
+      <c r="G19" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="41" t="n"/>
-      <c r="N19" s="44" t="s">
+      <c r="J19" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="42" t="n"/>
+      <c r="N19" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="45" t="n"/>
-      <c r="P19" s="15" t="n"/>
+      <c r="O19" s="46" t="n"/>
+      <c r="P19" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="20" s="48" spans="1:1024">
-      <c r="A20" s="9" t="s">
+    <row customHeight="1" ht="15.95" r="20" s="49" spans="1:1024">
+      <c r="A20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="33" t="n">
+      <c r="B20" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="34" t="n"/>
-      <c r="E20" s="35" t="n">
+      <c r="D20" s="35" t="n"/>
+      <c r="E20" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="37" t="n">
+      <c r="G20" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="34" t="n"/>
-      <c r="N20" s="37" t="s">
+      <c r="I20" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="35" t="n"/>
+      <c r="N20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="38" t="n"/>
+      <c r="O20" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="21" s="48" spans="1:1024">
-      <c r="B21" s="22" t="n">
+    <row customHeight="1" ht="15.95" r="21" s="49" spans="1:1024">
+      <c r="B21" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="23" t="n"/>
-      <c r="E21" s="24" t="n">
+      <c r="D21" s="24" t="n"/>
+      <c r="E21" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="25" t="n">
+      <c r="G21" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="23" t="n"/>
-      <c r="N21" s="25" t="s">
+      <c r="I21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="24" t="n"/>
+      <c r="N21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="26" t="n"/>
+      <c r="O21" s="27" t="n"/>
     </row>
-    <row customHeight="1" ht="15.95" r="22" s="48" spans="1:1024">
-      <c r="B22" s="40" t="n">
+    <row customHeight="1" ht="15.95" r="22" s="49" spans="1:1024">
+      <c r="B22" s="41" t="n">
         <v>12</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="41" t="n"/>
-      <c r="E22" s="42" t="n">
+      <c r="D22" s="42" t="n"/>
+      <c r="E22" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="44" t="n">
+      <c r="G22" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="41" t="n"/>
-      <c r="N22" s="44" t="s">
+      <c r="I22" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="42" t="n"/>
+      <c r="N22" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="45" t="n"/>
+      <c r="O22" s="46" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/conf/fw-rules.xlsx
+++ b/conf/fw-rules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>FWaaSルール</t>
   </si>
@@ -130,22 +130,25 @@
     <t>iida-az1-p01-net02-any-tcp</t>
   </si>
   <si>
-    <t>9a7080ae-3c90-4ccc-8659-1b45fbcb7206</t>
+    <t>618c64c3-f28b-404a-ad62-7bec33d7f48b</t>
   </si>
   <si>
     <t>10.1.2.0/24</t>
   </si>
   <si>
+    <t>af2641ee-9637-4e3d-b661-0b4323c138b5</t>
+  </si>
+  <si>
     <t>iida-az1-p01-net02-any-udp</t>
   </si>
   <si>
-    <t>66ffc217-7018-4bef-b1e6-af77e296278d</t>
+    <t>b7077240-adb1-4216-8983-6aa3f1e48d01</t>
   </si>
   <si>
     <t>iida-az1-p01-net02-any-icmp</t>
   </si>
   <si>
-    <t>630cdb7f-16c1-4bbd-83cc-9cd300f42bef</t>
+    <t>9d4138ed-3236-4d50-a637-762b22ffc716</t>
   </si>
   <si>
     <t>中→高</t>
@@ -154,7 +157,7 @@
     <t>iida-az1-p01-net01-net02-tcp</t>
   </si>
   <si>
-    <t>78f5028e-f6f6-4e7b-a6ea-7843805fd6d9</t>
+    <t>0c48089e-f8f2-4eb5-ab4e-f40bf11b91aa</t>
   </si>
   <si>
     <t>deny</t>
@@ -166,13 +169,13 @@
     <t>iida-az1-p01-net01-net02-udp</t>
   </si>
   <si>
-    <t>33b287ac-74f3-4de5-8c28-3aa13d8ee5a5</t>
+    <t>76dcbfc1-6593-4c9a-91b9-ff7223f4d358</t>
   </si>
   <si>
     <t>iida-az1-p01-net01-net02-icmp</t>
   </si>
   <si>
-    <t>7caf076b-5027-407a-9795-90450735ec36</t>
+    <t>d621e8bf-c9c6-485c-b96c-7a09887935fe</t>
   </si>
   <si>
     <t>中→低</t>
@@ -181,19 +184,19 @@
     <t>iida-az1-p01-net01-any-tcp</t>
   </si>
   <si>
-    <t>042c5bff-c7de-4465-9559-b78eb062aa78</t>
+    <t>abded572-ed04-4527-a6b2-1f728a926a81</t>
   </si>
   <si>
     <t>iida-az1-p01-net01-any-udp</t>
   </si>
   <si>
-    <t>76c9313d-e432-4f8b-b5ea-b9e3e36cb767</t>
+    <t>5ef0625e-3f85-435e-a5e7-e1812ffbc173</t>
   </si>
   <si>
     <t>iida-az1-p01-net01-any-icmp</t>
   </si>
   <si>
-    <t>32dae3c1-0d5f-45ab-b8c6-199a1244581a</t>
+    <t>af357dcf-2d4e-4c02-8ec5-3db261665daf</t>
   </si>
   <si>
     <t>明示的deny</t>
@@ -202,19 +205,19 @@
     <t>deny-all-tcp</t>
   </si>
   <si>
-    <t>a5ecfd2b-c62a-45c4-aaa2-dffd0cb7df94</t>
+    <t>cd2249f9-9f7a-42e5-94cb-8a528abeae04</t>
   </si>
   <si>
     <t>deny-all-udp</t>
   </si>
   <si>
-    <t>22472679-548e-482e-ae59-48cc4f210c78</t>
+    <t>5925fef4-392b-4ff6-9962-94a79e8a9973</t>
   </si>
   <si>
     <t>deny-all-icmp</t>
   </si>
   <si>
-    <t>2a391d37-77b5-450d-b04b-76dd3340aad0</t>
+    <t>0b429ceb-e665-48f9-b695-2c0ca9357bea</t>
   </si>
 </sst>
 </file>
@@ -867,15 +870,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="B1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
       <selection activeCell="D11" activeCellId="0" pane="topLeft" sqref="D11:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="11.0463917525773"/>
+    <col customWidth="1" max="1" min="1" style="3" width="10.7731958762887"/>
     <col customWidth="1" max="2" min="2" style="3" width="9.13917525773196"/>
-    <col customWidth="1" max="3" min="3" style="3" width="31.639175257732"/>
+    <col customWidth="1" max="3" min="3" style="3" width="31.5051546391753"/>
     <col customWidth="1" max="4" min="4" style="3" width="19.0927835051546"/>
     <col customWidth="1" max="5" min="5" style="3" width="9.273195876288661"/>
     <col customWidth="1" max="6" min="6" style="3" width="7.3659793814433"/>
@@ -883,7 +886,7 @@
     <col customWidth="1" max="8" min="8" style="3" width="9.953608247422681"/>
     <col customWidth="1" max="9" min="9" style="3" width="21.4123711340206"/>
     <col customWidth="1" max="10" min="10" style="3" width="13.3659793814433"/>
-    <col customWidth="1" max="11" min="11" style="3" width="13.7731958762887"/>
+    <col customWidth="1" max="11" min="11" style="3" width="13.5"/>
     <col customWidth="1" max="12" min="12" style="3" width="10.3659793814433"/>
     <col customWidth="1" max="15" min="13" style="3" width="13.3659793814433"/>
     <col customWidth="1" max="1025" min="16" style="3" width="7.3659793814433"/>
@@ -1132,7 +1135,9 @@
       <c r="N11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="22" t="n"/>
+      <c r="O11" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="P11" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="15.95" r="12" s="49" spans="1:1024">
@@ -1141,10 +1146,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="25" t="n">
         <v>1</v>
@@ -1174,7 +1179,9 @@
       <c r="N12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="27" t="n"/>
+      <c r="O12" s="27" t="s">
+        <v>40</v>
+      </c>
       <c r="P12" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="15.95" r="13" s="49" spans="1:1024">
@@ -1183,10 +1190,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="30" t="n">
         <v>1</v>
@@ -1216,27 +1223,29 @@
       <c r="N13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="33" t="n"/>
+      <c r="O13" s="33" t="s">
+        <v>40</v>
+      </c>
       <c r="P13" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="15.95" r="14" s="49" spans="1:1024">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="34" t="n">
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" s="38" t="n">
         <v>4</v>
@@ -1245,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" s="38" t="s">
         <v>32</v>
@@ -1260,7 +1269,9 @@
       <c r="N14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="39" t="n"/>
+      <c r="O14" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="P14" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="15.95" r="15" s="49" spans="1:1024">
@@ -1269,16 +1280,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="25" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" s="26" t="n">
         <v>4</v>
@@ -1287,7 +1298,7 @@
         <v>34</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>32</v>
@@ -1302,7 +1313,9 @@
       <c r="N15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="27" t="n"/>
+      <c r="O15" s="27" t="s">
+        <v>40</v>
+      </c>
       <c r="P15" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="15.95" r="16" s="49" spans="1:1024">
@@ -1311,16 +1324,16 @@
         <v>6</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" s="43" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" s="45" t="n">
         <v>4</v>
@@ -1329,7 +1342,7 @@
         <v>35</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J16" s="45" t="s">
         <v>32</v>
@@ -1344,21 +1357,23 @@
       <c r="N16" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="46" t="n"/>
+      <c r="O16" s="46" t="s">
+        <v>40</v>
+      </c>
       <c r="P16" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="15.95" r="17" s="49" spans="1:1024">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="34" t="n">
         <v>7</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="36" t="n">
         <v>1</v>
@@ -1373,7 +1388,7 @@
         <v>31</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" s="38" t="s">
         <v>32</v>
@@ -1388,7 +1403,9 @@
       <c r="N17" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="39" t="n"/>
+      <c r="O17" s="39" t="s">
+        <v>40</v>
+      </c>
       <c r="P17" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="15.95" r="18" s="49" spans="1:1024">
@@ -1397,10 +1414,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="25" t="n">
         <v>1</v>
@@ -1415,7 +1432,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>32</v>
@@ -1430,7 +1447,9 @@
       <c r="N18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="27" t="n"/>
+      <c r="O18" s="27" t="s">
+        <v>40</v>
+      </c>
       <c r="P18" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="15.95" r="19" s="49" spans="1:1024">
@@ -1439,10 +1458,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="43" t="n">
         <v>1</v>
@@ -1457,7 +1476,7 @@
         <v>35</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J19" s="45" t="s">
         <v>32</v>
@@ -1472,27 +1491,29 @@
       <c r="N19" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="46" t="n"/>
+      <c r="O19" s="46" t="s">
+        <v>40</v>
+      </c>
       <c r="P19" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="15.95" r="20" s="49" spans="1:1024">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="34" t="n">
         <v>10</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" s="38" t="n">
         <v>4</v>
@@ -1516,23 +1537,25 @@
       <c r="N20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="39" t="n"/>
+      <c r="O20" s="39" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row customHeight="1" ht="15.95" r="21" s="49" spans="1:1024">
       <c r="B21" s="23" t="n">
         <v>11</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" s="25" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" s="26" t="n">
         <v>4</v>
@@ -1556,23 +1579,25 @@
       <c r="N21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="27" t="n"/>
+      <c r="O21" s="27" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row customHeight="1" ht="15.95" r="22" s="49" spans="1:1024">
       <c r="B22" s="41" t="n">
         <v>12</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" s="43" t="n">
         <v>1</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" s="45" t="n">
         <v>4</v>
@@ -1596,7 +1621,9 @@
       <c r="N22" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O22" s="46" t="n"/>
+      <c r="O22" s="46" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/conf/fw-rules.xlsx
+++ b/conf/fw-rules.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>FWaaSルール</t>
   </si>
   <si>
+    <t>自動登録</t>
+  </si>
+  <si>
     <t>順序</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>アベイラビリティゾーン</t>
   </si>
   <si>
+    <t>ポリシー名</t>
+  </si>
+  <si>
     <t>ポリシーID</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t>availability_zone</t>
   </si>
   <si>
+    <t>firewall_policy_name</t>
+  </si>
+  <si>
     <t>firewall_policy_id</t>
   </si>
   <si>
@@ -124,31 +133,34 @@
     <t>icmp</t>
   </si>
   <si>
-    <t>高→低（ANY）</t>
+    <t>高→低</t>
   </si>
   <si>
     <t>iida-az1-p01-net02-any-tcp</t>
   </si>
   <si>
-    <t>618c64c3-f28b-404a-ad62-7bec33d7f48b</t>
+    <t>690a35a4-9570-459b-82e7-239e2355f12c</t>
   </si>
   <si>
     <t>10.1.2.0/24</t>
   </si>
   <si>
-    <t>af2641ee-9637-4e3d-b661-0b4323c138b5</t>
+    <t>iida-p0</t>
+  </si>
+  <si>
+    <t>2b06845f-822a-4c0d-8e76-be98853144c4</t>
   </si>
   <si>
     <t>iida-az1-p01-net02-any-udp</t>
   </si>
   <si>
-    <t>b7077240-adb1-4216-8983-6aa3f1e48d01</t>
+    <t>6e55a796-730c-4bab-9ac8-94b8b0ed13b9</t>
   </si>
   <si>
     <t>iida-az1-p01-net02-any-icmp</t>
   </si>
   <si>
-    <t>9d4138ed-3236-4d50-a637-762b22ffc716</t>
+    <t>e8715459-ce98-400f-8e14-cf5ad85f1d53</t>
   </si>
   <si>
     <t>中→高</t>
@@ -157,7 +169,7 @@
     <t>iida-az1-p01-net01-net02-tcp</t>
   </si>
   <si>
-    <t>0c48089e-f8f2-4eb5-ab4e-f40bf11b91aa</t>
+    <t>6ad3c242-98a4-41d0-aba9-922c33d60be2</t>
   </si>
   <si>
     <t>deny</t>
@@ -169,13 +181,13 @@
     <t>iida-az1-p01-net01-net02-udp</t>
   </si>
   <si>
-    <t>76dcbfc1-6593-4c9a-91b9-ff7223f4d358</t>
+    <t>366ee0ed-2681-4b9a-8974-3648cd73599e</t>
   </si>
   <si>
     <t>iida-az1-p01-net01-net02-icmp</t>
   </si>
   <si>
-    <t>d621e8bf-c9c6-485c-b96c-7a09887935fe</t>
+    <t>2ff6db56-f297-4781-80a3-c3fbe7f0c9c9</t>
   </si>
   <si>
     <t>中→低</t>
@@ -184,19 +196,19 @@
     <t>iida-az1-p01-net01-any-tcp</t>
   </si>
   <si>
-    <t>abded572-ed04-4527-a6b2-1f728a926a81</t>
+    <t>8073dc29-9f4c-46c6-a32a-0861b7845563</t>
   </si>
   <si>
     <t>iida-az1-p01-net01-any-udp</t>
   </si>
   <si>
-    <t>5ef0625e-3f85-435e-a5e7-e1812ffbc173</t>
+    <t>937a1b9a-8a4e-4cf5-b776-418b49284ae6</t>
   </si>
   <si>
     <t>iida-az1-p01-net01-any-icmp</t>
   </si>
   <si>
-    <t>af357dcf-2d4e-4c02-8ec5-3db261665daf</t>
+    <t>5a74594c-969f-4353-a5a9-2fe63a03c6c6</t>
   </si>
   <si>
     <t>明示的deny</t>
@@ -205,19 +217,19 @@
     <t>deny-all-tcp</t>
   </si>
   <si>
-    <t>cd2249f9-9f7a-42e5-94cb-8a528abeae04</t>
+    <t>20f502ae-ae42-4dd2-8784-b0fb62d3c897</t>
   </si>
   <si>
     <t>deny-all-udp</t>
   </si>
   <si>
-    <t>5925fef4-392b-4ff6-9962-94a79e8a9973</t>
+    <t>5e9b4285-63d9-4959-9e35-11f480293b79</t>
   </si>
   <si>
     <t>deny-all-icmp</t>
   </si>
   <si>
-    <t>0b429ceb-e665-48f9-b695-2c0ca9357bea</t>
+    <t>f4e3c13e-5195-45a5-8785-9aeed78ad5d6</t>
   </si>
 </sst>
 </file>
@@ -263,7 +275,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -274,6 +286,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFD7E4BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -417,19 +435,28 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="66">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
@@ -439,6 +466,9 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -448,13 +478,19 @@
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
@@ -464,6 +500,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
@@ -472,97 +514,121 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="3" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="4" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="8" fillId="5" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="5" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="8" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="5" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="8" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="5" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="5" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="6" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="11" fillId="5" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="14" fillId="5" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="5" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="6" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="5" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="14" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="4" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="5" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="3" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -870,759 +936,796 @@
   </sheetPr>
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="B1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
-      <selection activeCell="D11" activeCellId="0" pane="topLeft" sqref="D11:D22"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="C1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
+      <selection activeCell="D6" activeCellId="0" pane="topLeft" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="10.7731958762887"/>
-    <col customWidth="1" max="2" min="2" style="3" width="9.13917525773196"/>
-    <col customWidth="1" max="3" min="3" style="3" width="31.5051546391753"/>
-    <col customWidth="1" max="4" min="4" style="3" width="19.0927835051546"/>
-    <col customWidth="1" max="5" min="5" style="3" width="9.273195876288661"/>
-    <col customWidth="1" max="6" min="6" style="3" width="7.3659793814433"/>
-    <col customWidth="1" max="7" min="7" style="3" width="6.95360824742268"/>
-    <col customWidth="1" max="8" min="8" style="3" width="9.953608247422681"/>
-    <col customWidth="1" max="9" min="9" style="3" width="21.4123711340206"/>
-    <col customWidth="1" max="10" min="10" style="3" width="13.3659793814433"/>
-    <col customWidth="1" max="11" min="11" style="3" width="13.5"/>
-    <col customWidth="1" max="12" min="12" style="3" width="10.3659793814433"/>
-    <col customWidth="1" max="15" min="13" style="3" width="13.3659793814433"/>
-    <col customWidth="1" max="1025" min="16" style="3" width="7.3659793814433"/>
+    <col customWidth="1" max="1" min="1" style="5" width="13.0927835051546"/>
+    <col customWidth="1" max="2" min="2" style="5" width="8.185567010309279"/>
+    <col customWidth="1" max="3" min="3" style="5" width="31.5051546391753"/>
+    <col customWidth="1" max="4" min="4" style="5" width="19.0927835051546"/>
+    <col customWidth="1" max="5" min="5" style="5" width="9.273195876288661"/>
+    <col customWidth="1" max="6" min="6" style="5" width="7.3659793814433"/>
+    <col customWidth="1" max="7" min="7" style="5" width="6.95360824742268"/>
+    <col customWidth="1" max="8" min="8" style="5" width="9.953608247422681"/>
+    <col customWidth="1" max="9" min="9" style="5" width="21.4123711340206"/>
+    <col customWidth="1" max="11" min="10" style="5" width="13.3659793814433"/>
+    <col customWidth="1" max="12" min="12" style="5" width="10.3659793814433"/>
+    <col customWidth="1" max="15" min="13" style="5" width="13.3659793814433"/>
+    <col customWidth="1" max="16" min="16" style="6" width="13.3659793814433"/>
+    <col customWidth="1" max="1025" min="17" style="5" width="7.3659793814433"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="13.9" r="1" s="2" spans="1:1024"/>
-    <row customFormat="1" customHeight="1" ht="13.5" r="2" s="3" spans="1:1024"/>
-    <row r="3" spans="1:1024"/>
-    <row customFormat="1" customHeight="1" ht="13.9" r="4" s="2" spans="1:1024">
-      <c r="B4" s="4" t="s">
+    <row customFormat="1" customHeight="1" ht="13.9" r="1" s="3" spans="1:1024">
+      <c r="P1" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="2" s="5" spans="1:1024">
+      <c r="P2" s="6" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.8" r="3" s="5" spans="1:1024">
+      <c r="P3" s="5" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.9" r="4" s="3" spans="1:1024">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="5" s="3" spans="1:1024"/>
-    <row customFormat="1" customHeight="1" ht="15.75" r="6" s="2" spans="1:1024">
-      <c r="B6" s="5" t="s">
+      <c r="P4" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="13.5" r="5" s="5" spans="1:1024">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="O5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="6" s="3" spans="1:1024">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="M6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="N6" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40.5" r="7" s="10" spans="1:1024">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="7" t="s">
+      <c r="O6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="P6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+    </row>
+    <row customFormat="1" customHeight="1" ht="40.5" r="7" s="15" spans="1:1024">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="F7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="G7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="H7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="I7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="J7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="K7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="L7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="M7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AMI7" s="2" t="n"/>
-      <c r="AMJ7" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="8" s="49" spans="1:1024">
-      <c r="A8" s="3" t="s">
+      <c r="N7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="11" t="n">
+      <c r="O7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AMJ7" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="8" s="65" spans="1:1024">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="13" t="n">
+      <c r="F8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="14" t="n"/>
-      <c r="J8" s="13" t="s">
+      <c r="H8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="20" t="n"/>
+      <c r="J8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="20" t="n"/>
+      <c r="L8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="8" t="n"/>
+      <c r="N8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="21" t="n"/>
+      <c r="P8" s="22" t="n"/>
+      <c r="Q8" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="9" s="65" spans="1:1024">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="14" t="n"/>
-      <c r="L8" s="13" t="s">
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="19" t="n"/>
+      <c r="J9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="19" t="n"/>
+      <c r="L9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="8" t="n"/>
+      <c r="N9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="21" t="n"/>
+      <c r="P9" s="22" t="n"/>
+      <c r="Q9" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="10" s="65" spans="1:1024">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="5" t="n"/>
-      <c r="N8" s="13" t="s">
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="13" t="n"/>
-      <c r="P8" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="9" s="49" spans="1:1024">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="11" t="n">
+      <c r="G10" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="19" t="n"/>
+      <c r="J10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="19" t="n"/>
+      <c r="L10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="8" t="n"/>
+      <c r="N10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="21" t="n"/>
+      <c r="P10" s="22" t="n"/>
+      <c r="Q10" s="24" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="11" s="65" spans="1:1024">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="25" t="n"/>
+      <c r="C11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="13" t="n">
+      <c r="F11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="13" t="n"/>
-      <c r="J9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="13" t="n"/>
-      <c r="L9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="5" t="n"/>
-      <c r="N9" s="13" t="s">
+      <c r="I11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="26" t="n"/>
+      <c r="N11" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="12" s="65" spans="1:1024">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="33" t="n"/>
+      <c r="C12" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="13" t="n"/>
-      <c r="P9" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="10" s="49" spans="1:1024">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="11" t="n">
+      <c r="G12" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="34" t="n"/>
+      <c r="N12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="13" s="65" spans="1:1024">
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="38" t="n"/>
+      <c r="C13" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="13" t="n">
+      <c r="F13" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="13" t="n"/>
-      <c r="J10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="13" t="n"/>
-      <c r="L10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="5" t="n"/>
-      <c r="N10" s="13" t="s">
+      <c r="H13" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="39" t="n"/>
+      <c r="N13" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="14" s="65" spans="1:1024">
+      <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="46" t="n"/>
+      <c r="C14" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="47" t="n"/>
+      <c r="N14" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="15" s="65" spans="1:1024">
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="33" t="n"/>
+      <c r="C15" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="34" t="n"/>
+      <c r="N15" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="16" s="65" spans="1:1024">
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="55" t="n"/>
+      <c r="C16" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="56" t="n"/>
+      <c r="N16" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="17" s="65" spans="1:1024">
+      <c r="A17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="46" t="n"/>
+      <c r="C17" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="13" t="n"/>
-      <c r="P10" s="16" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="11" s="49" spans="1:1024">
-      <c r="A11" s="3" t="s">
+      <c r="G17" s="51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="47" t="n"/>
+      <c r="N17" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="17" t="n">
+      <c r="O17" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="24" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="18" s="65" spans="1:1024">
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="33" t="n"/>
+      <c r="C18" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="F18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="I18" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="34" t="n"/>
+      <c r="N18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="24" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="19" s="65" spans="1:1024">
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="55" t="n"/>
+      <c r="C19" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="19" t="n">
+      <c r="I19" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="56" t="n"/>
+      <c r="N19" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="24" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="20" s="65" spans="1:1024">
+      <c r="A20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="46" t="n"/>
+      <c r="C20" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="21" t="n">
+      <c r="F20" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="51" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="18" t="n"/>
-      <c r="N11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="12" s="49" spans="1:1024">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="25" t="n">
+      <c r="H20" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="47" t="n"/>
+      <c r="N20" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.95" r="21" s="65" spans="1:1024">
+      <c r="B21" s="33" t="n"/>
+      <c r="C21" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="26" t="n">
+      <c r="F21" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="H12" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="24" t="n"/>
-      <c r="N12" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="13" s="49" spans="1:1024">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="H21" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="34" t="n"/>
+      <c r="N21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="P21" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="30" t="n">
+    </row>
+    <row customHeight="1" ht="15.95" r="22" s="65" spans="1:1024">
+      <c r="B22" s="55" t="n"/>
+      <c r="C22" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="32" t="n">
+      <c r="F22" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="H13" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="29" t="n"/>
-      <c r="N13" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="14" s="49" spans="1:1024">
-      <c r="A14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="35" t="n"/>
-      <c r="N14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="15" s="49" spans="1:1024">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="24" t="n"/>
-      <c r="N15" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="16" s="49" spans="1:1024">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="45" t="n">
-        <v>4</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="42" t="n"/>
-      <c r="N16" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="17" s="49" spans="1:1024">
-      <c r="A17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="34" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="35" t="n"/>
-      <c r="N17" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="16" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="18" s="49" spans="1:1024">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="24" t="n"/>
-      <c r="N18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="16" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="19" s="49" spans="1:1024">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="41" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="45" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="42" t="n"/>
-      <c r="N19" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="16" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.95" r="20" s="49" spans="1:1024">
-      <c r="A20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="35" t="n"/>
-      <c r="N20" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.95" r="21" s="49" spans="1:1024">
-      <c r="B21" s="23" t="n">
-        <v>11</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="24" t="n"/>
-      <c r="N21" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.95" r="22" s="49" spans="1:1024">
-      <c r="B22" s="41" t="n">
-        <v>12</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="45" t="n">
-        <v>4</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="42" t="n"/>
-      <c r="N22" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="46" t="s">
-        <v>40</v>
+      <c r="H22" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="56" t="n"/>
+      <c r="N22" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="62" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/conf/fw-rules.xlsx
+++ b/conf/fw-rules.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
   <si>
     <t xml:space="preserve">FWaaSルール</t>
   </si>
@@ -146,12 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">10.1.2.0/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iida-p0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2b06845f-822a-4c0d-8e76-be98853144c4</t>
   </si>
   <si>
     <t xml:space="preserve">iida-az1-p01-net02-any-udp</t>
@@ -422,7 +416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,14 +434,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -762,14 +748,14 @@
   </sheetPr>
   <dimension ref="1:22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11:D22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.0927835051546"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.04639175257732"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.91237113402062"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.5051546391753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.0927835051546"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.27319587628866"/>
@@ -787,26 +773,9 @@
     <row r="1" s="3" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P1" s="4"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="P2" s="6"/>
-    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
       <c r="S3" s="0"/>
@@ -1817,741 +1786,681 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="5" t="s">
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="15" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="13" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="AMJ7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17" t="n">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="19" t="n">
+      <c r="G8" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="19" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="22"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17" t="n">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="19" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="22"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17" t="n">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="19" t="n">
+      <c r="G10" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="19" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="24"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28" t="n">
+      <c r="D11" s="25"/>
+      <c r="E11" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="30" t="n">
+      <c r="G11" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="30" t="s">
+      <c r="J11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="5"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="35" t="n">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="36" t="n">
+      <c r="G12" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="36" t="s">
+      <c r="J12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="5"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41" t="n">
+      <c r="B13" s="36"/>
+      <c r="C13" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="43" t="n">
+      <c r="G13" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="43" t="s">
+      <c r="J13" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="37"/>
+      <c r="N13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="5"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47" t="s">
+      <c r="G14" s="49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="51" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="51" t="s">
+      <c r="J14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="51" t="s">
+      <c r="L14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="45"/>
+      <c r="N14" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="5"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="35" t="n">
+      <c r="B15" s="31"/>
+      <c r="C15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="36" t="n">
+      <c r="F15" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="36" t="s">
+      <c r="I15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="36" t="s">
+      <c r="L15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="32"/>
+      <c r="N15" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q15" s="5"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58" t="n">
+      <c r="B16" s="53"/>
+      <c r="C16" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="60" t="n">
+      <c r="F16" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="H16" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="60" t="s">
+      <c r="I16" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="60" t="s">
+      <c r="L16" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="54"/>
+      <c r="N16" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" s="5"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="60"/>
     </row>
     <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49" t="n">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="51" t="n">
+      <c r="G17" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="51" t="s">
+      <c r="I17" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="45"/>
+      <c r="N17" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="24"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="35" t="n">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="36" t="n">
+      <c r="G18" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="36" t="s">
+      <c r="I18" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="32"/>
+      <c r="N18" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="P18" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q18" s="24"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58" t="n">
+      <c r="B19" s="53"/>
+      <c r="C19" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="60" t="n">
+      <c r="G19" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="56"/>
-      <c r="N19" s="60" t="s">
+      <c r="I19" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="54"/>
+      <c r="N19" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q19" s="24"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49" t="n">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="51" t="n">
+      <c r="F20" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="47"/>
-      <c r="N20" s="51" t="s">
+      <c r="I20" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="45"/>
+      <c r="N20" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="53" t="s">
-        <v>43</v>
-      </c>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
     </row>
     <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="33"/>
-      <c r="C21" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="35" t="n">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="36" t="n">
+      <c r="F21" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="36" t="s">
+      <c r="I21" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="32"/>
+      <c r="N21" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="P21" s="37" t="s">
-        <v>43</v>
-      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="35"/>
     </row>
     <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58" t="n">
+      <c r="B22" s="53"/>
+      <c r="C22" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="60" t="n">
+      <c r="F22" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="H22" s="60" t="s">
+      <c r="H22" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="56"/>
-      <c r="N22" s="60" t="s">
+      <c r="I22" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="54"/>
+      <c r="N22" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="P22" s="62" t="s">
-        <v>43</v>
-      </c>
+      <c r="O22" s="59"/>
+      <c r="P22" s="60"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
